--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="189">
   <si>
     <t>No</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>房态图续租功能（可以重复续租）</t>
-  </si>
-  <si>
-    <t>BugFixs</t>
   </si>
   <si>
     <t>房东PC</t>
@@ -206,9 +203,6 @@
   </si>
   <si>
     <t>房态文案修改（惩罚隐藏，发起续租）</t>
-  </si>
-  <si>
-    <t>不通过</t>
   </si>
   <si>
     <t>App录入50间限制</t>
@@ -349,10 +343,6 @@
     <rPh sb="4" eb="5">
       <t>you'h</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -383,10 +373,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>partner、partnerpc</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>顾宝碗</t>
     <rPh sb="0" eb="1">
       <t>gu'bao'w</t>
@@ -421,14 +407,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>子账号收不到确认租约消息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>renter</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -453,10 +431,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>partner、partnerpc、renter、renterembed、renterembed-fe、payapi</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>施超、谷丽娜</t>
     <rPh sb="0" eb="1">
       <t>s'c</t>
@@ -474,14 +448,6 @@
     <rPh sb="7" eb="8">
       <t>chu'li</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>partner、partnerpc</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -514,46 +480,278 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>重要</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>不紧急</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示锁SQL整改</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasktracker</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次进入支付密码设置界面，文案修改</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>【慢查询优化第三期】- 【SLOW-20161028009】的测试</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner、partnerpc</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>重要</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>不紧急</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示锁SQL整改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>tasktracker</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>杨斌</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
+    <t>BS</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>纪维玉</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>通过</t>
+    <t>partnerpc、partnerapp</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉、王祥毅</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>续租功能，蘑菇宝禁止续租</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东acctname含有字母，bs端无法打开房东详情页</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩、孙苏文、傅其亮、苏国泰</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>王健</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC、APP】关于支付状态文案修改</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>严宏飞</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢Sql优化</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙苏文、张浩</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收报表，在线支付的账单，核销时间为空</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix  Bug</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东pc操作租金宝订单退房，生成两笔账单</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东pc操作租金宝订单退房，生成两笔相同的买回单</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>【BS】运营报表二期</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩、孙苏文</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>【BS】风控房东管理三期</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲、王健</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>【BS】风控房源规则</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博、傅其亮</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>【BS】报表&amp;表查询优化二期</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩、孙苏文、张浩</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -561,238 +759,55 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>重要</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次进入支付密码设置界面，文案修改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>partnerpc</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪维玉</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>不紧急</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>【慢查询优化第三期】- 【SLOW-20161028009】的测试</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时器</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙周麟</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫码项目增加白名单短信限制</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫码项目</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛冠宙</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信公众号对接七陌客服</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>新特性</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Memcache 代码逻辑优化改造</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客PC、WAP&amp;租客APP&amp;扫码项目</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动专题模板动态化调整</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>周蓉</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东活跃分BS系统文案修改</t>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>【房东PC】实收报表优化</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC、房东APP</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】应收、实收报表合一需求</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>田志敏</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Fix  Bug</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪林强</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix  Bug</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴永余</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>裔玲玲</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修渠道枚举整合</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫码项目</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴永余</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网首页底部“公众平台”内容修改，更换二维码</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>新特性</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客PC</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>王龙国</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客PC、WAP&amp;租客APP</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴永余</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复租客APP的首页banner排序</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客APP</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪林强</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>周蓉</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复官网房间详情页室友过多导致页面样式扭曲的问题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复租客PC房间详情页交通反向的问题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>周云</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵明基</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙苏文</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳、严宏飞</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号收不到确认租约消息</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner、partnerpc、renter、renterembed、renterembed-fe、payapi</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -892,13 +907,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -926,7 +934,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1030,6 +1038,19 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1177,9 +1198,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1197,18 +1215,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1243,14 +1249,29 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1633,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1742,41 +1763,47 @@
         <v>23</v>
       </c>
       <c r="E2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H2" s="32">
         <v>42678</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="32">
         <v>42678</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="N2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="37"/>
+      <c r="O2" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="R2" s="34"/>
       <c r="S2" s="34"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="43"/>
     </row>
     <row r="3" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="29">
@@ -1789,44 +1816,50 @@
         <v>22</v>
       </c>
       <c r="D3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>31</v>
-      </c>
       <c r="F3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H3" s="32">
         <v>42678</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="32">
         <v>42678</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="37"/>
+      <c r="O3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="R3" s="34"/>
       <c r="S3" s="34"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="44"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="43"/>
     </row>
     <row r="4" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
@@ -1839,50 +1872,50 @@
         <v>22</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="G4" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H4" s="32">
         <v>42676</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="32">
         <v>42676</v>
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="31" t="s">
+      <c r="O4" s="37" t="s">
         <v>34</v>
-      </c>
-      <c r="O4" s="37" t="s">
-        <v>35</v>
       </c>
       <c r="P4" s="32">
         <v>42680</v>
       </c>
       <c r="Q4" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R4" s="34"/>
       <c r="S4" s="34"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="44"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="43"/>
     </row>
     <row r="5" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29">
@@ -1895,50 +1928,50 @@
         <v>22</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H5" s="32">
         <v>42676</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="32">
         <v>42676</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="31" t="s">
+      <c r="O5" s="37" t="s">
         <v>34</v>
-      </c>
-      <c r="O5" s="37" t="s">
-        <v>35</v>
       </c>
       <c r="P5" s="32">
         <v>42680</v>
       </c>
       <c r="Q5" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="44"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="43"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
@@ -1951,50 +1984,50 @@
         <v>22</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H6" s="32">
         <v>42676</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="32">
         <v>42676</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="31" t="s">
+      <c r="O6" s="37" t="s">
         <v>34</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>35</v>
       </c>
       <c r="P6" s="32">
         <v>42680</v>
       </c>
       <c r="Q6" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R6" s="34"/>
       <c r="S6" s="34"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="44"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="43"/>
     </row>
     <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29">
@@ -2007,50 +2040,50 @@
         <v>22</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="G7" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H7" s="32">
         <v>42676</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="32">
         <v>42676</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="31" t="s">
+      <c r="O7" s="37" t="s">
         <v>34</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>35</v>
       </c>
       <c r="P7" s="32">
         <v>42680</v>
       </c>
       <c r="Q7" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="44"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="43"/>
     </row>
     <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
@@ -2063,50 +2096,50 @@
         <v>22</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="G8" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H8" s="32">
         <v>42677</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="32">
         <v>42677</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>42</v>
-      </c>
       <c r="O8" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="32">
         <v>42680</v>
       </c>
       <c r="Q8" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="44"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="43"/>
     </row>
     <row r="9" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="29">
@@ -2119,50 +2152,50 @@
         <v>22</v>
       </c>
       <c r="D9" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>44</v>
-      </c>
       <c r="G9" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="32">
         <v>42676</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="32">
         <v>42676</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>42</v>
-      </c>
       <c r="O9" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="32">
         <v>42680</v>
       </c>
       <c r="Q9" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="44"/>
+        <v>35</v>
+      </c>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="43"/>
     </row>
     <row r="10" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="29">
@@ -2175,44 +2208,50 @@
         <v>22</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H10" s="32">
         <v>42681</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="32">
         <v>42681</v>
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="37"/>
+      <c r="O10" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="32">
+        <v>42682</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="44"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="43"/>
     </row>
     <row r="11" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="29">
@@ -2222,47 +2261,53 @@
         <v>21</v>
       </c>
       <c r="C11" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>49</v>
-      </c>
       <c r="E11" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H11" s="32">
         <v>42678</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="32">
         <v>42681</v>
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="37"/>
+      <c r="O11" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="44"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="43"/>
     </row>
     <row r="12" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="29">
@@ -2275,42 +2320,50 @@
         <v>22</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="32">
         <v>42676</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="32">
         <v>42676</v>
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="37"/>
+        <v>27</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="44"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="43"/>
     </row>
     <row r="13" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="29">
@@ -2323,44 +2376,50 @@
         <v>22</v>
       </c>
       <c r="D13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>53</v>
-      </c>
       <c r="G13" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="32">
         <v>42676</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="32">
         <v>42676</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="37"/>
+        <v>46</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="44"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="43"/>
     </row>
     <row r="14" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="29">
@@ -2373,42 +2432,50 @@
         <v>22</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="32">
         <v>42676</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="32">
         <v>42676</v>
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="37"/>
+        <v>27</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="44"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="43"/>
     </row>
     <row r="15" spans="1:22" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="29">
@@ -2421,42 +2488,50 @@
         <v>22</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="32">
         <v>42678</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="32">
         <v>42681</v>
       </c>
       <c r="K15" s="31"/>
       <c r="L15" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="31"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="37"/>
+        <v>27</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="R15" s="34"/>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="43"/>
     </row>
     <row r="16" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="29">
@@ -2466,47 +2541,53 @@
         <v>21</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H16" s="32">
         <v>42681</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="32">
         <v>42681</v>
       </c>
       <c r="K16" s="31"/>
       <c r="L16" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="31" t="s">
-        <v>28</v>
-      </c>
       <c r="N16" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="37"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="37"/>
+      <c r="P16" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q16" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="R16" s="34"/>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="43"/>
     </row>
     <row r="17" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="29">
@@ -2516,53 +2597,53 @@
         <v>21</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H17" s="32">
         <v>42681</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="32">
         <v>42681</v>
       </c>
       <c r="K17" s="38"/>
       <c r="L17" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P17" s="32">
         <v>42680</v>
       </c>
-      <c r="Q17" s="47" t="s">
-        <v>36</v>
+      <c r="Q17" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="44"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="43"/>
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="29">
@@ -2572,44 +2653,48 @@
         <v>21</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H18" s="32">
         <v>42681</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" s="32">
         <v>42681</v>
       </c>
       <c r="K18" s="40"/>
       <c r="L18" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="31" t="s">
+      <c r="O18" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="35"/>
+      <c r="P18" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q18" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
@@ -2623,44 +2708,48 @@
         <v>21</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="32">
         <v>42677</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="32">
         <v>42677</v>
       </c>
       <c r="K19" s="40"/>
       <c r="L19" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N19" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="34" t="s">
+      <c r="P19" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q19" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="35"/>
       <c r="R19" s="34"/>
       <c r="S19" s="34"/>
       <c r="T19" s="34"/>
@@ -2673,45 +2762,49 @@
       <c r="B20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>48</v>
+      <c r="C20" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="G20" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H20" s="32">
         <v>42681</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="32">
         <v>42681</v>
       </c>
       <c r="K20" s="40"/>
       <c r="L20" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N20" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O20" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="35"/>
+        <v>34</v>
+      </c>
+      <c r="P20" s="32">
+        <v>42682</v>
+      </c>
+      <c r="Q20" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="R20" s="34"/>
       <c r="S20" s="34"/>
       <c r="T20" s="34"/>
@@ -2724,47 +2817,53 @@
       <c r="B21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="52" t="s">
+      <c r="C21" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="G21" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="H21" s="50">
+        <v>42674</v>
+      </c>
+      <c r="I21" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="J21" s="50">
+        <v>42674</v>
+      </c>
+      <c r="K21" s="48"/>
+      <c r="L21" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="55">
-        <v>42674</v>
-      </c>
-      <c r="I21" s="53" t="s">
+      <c r="M21" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J21" s="55">
-        <v>42674</v>
-      </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="56" t="s">
+      <c r="N21" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="N21" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="O21" s="56"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="56"/>
+      <c r="O21" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="50">
+        <v>42682</v>
+      </c>
+      <c r="Q21" s="51" t="s">
+        <v>126</v>
+      </c>
       <c r="R21" s="34"/>
       <c r="S21" s="34"/>
       <c r="T21" s="34"/>
-      <c r="U21" s="57"/>
+      <c r="U21" s="52"/>
     </row>
     <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="29">
@@ -2773,47 +2872,53 @@
       <c r="B22" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="52" t="s">
+      <c r="C22" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="50">
+        <v>42674</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="50">
+        <v>42674</v>
+      </c>
+      <c r="K22" s="48"/>
+      <c r="L22" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="55">
-        <v>42674</v>
-      </c>
-      <c r="I22" s="53" t="s">
+      <c r="M22" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J22" s="55">
-        <v>42674</v>
-      </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="N22" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="O22" s="56"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="56"/>
+      <c r="N22" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="50">
+        <v>42682</v>
+      </c>
+      <c r="Q22" s="51" t="s">
+        <v>126</v>
+      </c>
       <c r="R22" s="34"/>
       <c r="S22" s="34"/>
       <c r="T22" s="34"/>
-      <c r="U22" s="57"/>
+      <c r="U22" s="52"/>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="29">
@@ -2822,47 +2927,53 @@
       <c r="B23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="53" t="s">
+      <c r="C23" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="55">
+      <c r="H23" s="50">
         <v>42674</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="50">
+        <v>42674</v>
+      </c>
+      <c r="K23" s="48"/>
+      <c r="L23" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="55">
-        <v>42674</v>
-      </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="N23" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="O23" s="56"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="56"/>
+      <c r="N23" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="50">
+        <v>42682</v>
+      </c>
+      <c r="Q23" s="51" t="s">
+        <v>125</v>
+      </c>
       <c r="R23" s="34"/>
       <c r="S23" s="34"/>
       <c r="T23" s="34"/>
-      <c r="U23" s="57"/>
+      <c r="U23" s="52"/>
     </row>
     <row r="24" spans="1:22" ht="33" x14ac:dyDescent="0.15">
       <c r="A24" s="29">
@@ -2871,47 +2982,53 @@
       <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="53" t="s">
+      <c r="C24" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="55">
+      <c r="H24" s="50">
         <v>42674</v>
       </c>
-      <c r="I24" s="53" t="s">
+      <c r="I24" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="50">
+        <v>42674</v>
+      </c>
+      <c r="K24" s="48"/>
+      <c r="L24" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="55">
-        <v>42674</v>
-      </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="M24" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="N24" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="O24" s="56"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="59"/>
+      <c r="N24" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="P24" s="50">
+        <v>42682</v>
+      </c>
+      <c r="Q24" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="54"/>
     </row>
     <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="29">
@@ -2920,47 +3037,55 @@
       <c r="B25" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="55">
+      <c r="C25" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="50">
         <v>42674</v>
       </c>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="50">
+        <v>42674</v>
+      </c>
+      <c r="K25" s="48"/>
+      <c r="L25" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="55">
-        <v>42674</v>
-      </c>
-      <c r="K25" s="53"/>
-      <c r="L25" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="M25" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="N25" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="O25" s="56"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="59"/>
+      <c r="N25" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="P25" s="50">
+        <v>42682</v>
+      </c>
+      <c r="Q25" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="R25" s="55">
+        <v>4521</v>
+      </c>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="54"/>
     </row>
     <row r="26" spans="1:22" ht="66" x14ac:dyDescent="0.15">
       <c r="A26" s="29">
@@ -2969,47 +3094,49 @@
       <c r="B26" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="53" t="s">
+      <c r="C26" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="55">
+      <c r="H26" s="50">
         <v>42674</v>
       </c>
-      <c r="I26" s="53" t="s">
+      <c r="I26" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="50">
+        <v>42674</v>
+      </c>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J26" s="55">
-        <v>42674</v>
-      </c>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="M26" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="N26" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="O26" s="56"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="59"/>
+      <c r="M26" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="N26" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="O26" s="51"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="U26" s="54"/>
     </row>
     <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="29">
@@ -3018,47 +3145,53 @@
       <c r="B27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="55">
+      <c r="C27" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="50">
         <v>42675</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="50">
+        <v>42675</v>
+      </c>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="M27" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J27" s="55">
-        <v>42675</v>
-      </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="M27" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="N27" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="O27" s="56"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="59"/>
+      <c r="N27" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="P27" s="50">
+        <v>42682</v>
+      </c>
+      <c r="Q27" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="54"/>
     </row>
     <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="29">
@@ -3067,829 +3200,941 @@
       <c r="B28" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="55">
+      <c r="C28" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="50">
         <v>42677</v>
       </c>
-      <c r="I28" s="53" t="s">
+      <c r="I28" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" s="50">
+        <v>42677</v>
+      </c>
+      <c r="K28" s="48"/>
+      <c r="L28" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="55">
-        <v>42677</v>
-      </c>
-      <c r="K28" s="53"/>
-      <c r="L28" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="M28" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="N28" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="O28" s="56"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="59"/>
+      <c r="N28" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="O28" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" s="50">
+        <v>42682</v>
+      </c>
+      <c r="Q28" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="54"/>
     </row>
     <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="29">
         <v>28</v>
       </c>
-      <c r="B29" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="55">
+      <c r="B29" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="50">
         <v>42670</v>
       </c>
-      <c r="I29" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="55">
+      <c r="I29" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="50">
         <v>42670</v>
       </c>
-      <c r="K29" s="53"/>
-      <c r="L29" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="M29" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="N29" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="O29" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="P29" s="55">
+      <c r="K29" s="48"/>
+      <c r="L29" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="M29" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="N29" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="O29" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="50">
         <v>42681</v>
       </c>
-      <c r="Q29" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="56"/>
+      <c r="Q29" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="51"/>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="29">
         <v>29</v>
       </c>
-      <c r="B30" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="61" t="s">
+      <c r="B30" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="55">
+      <c r="G30" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="50">
         <v>42672</v>
       </c>
-      <c r="I30" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="55">
+      <c r="I30" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="50">
         <v>42672</v>
       </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="M30" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="N30" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="O30" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="P30" s="55">
+      <c r="K30" s="48"/>
+      <c r="L30" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="M30" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="N30" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="O30" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" s="50">
         <v>42681</v>
       </c>
-      <c r="Q30" s="56" t="s">
-        <v>135</v>
+      <c r="Q30" s="51" t="s">
+        <v>117</v>
       </c>
       <c r="R30" s="34"/>
       <c r="S30" s="34"/>
       <c r="T30" s="34"/>
-      <c r="U30" s="57"/>
+      <c r="U30" s="52"/>
     </row>
     <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="29">
         <v>30</v>
       </c>
-      <c r="B31" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="53" t="s">
+      <c r="B31" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="50">
+        <v>42672</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="50">
+        <v>42672</v>
+      </c>
+      <c r="K31" s="48"/>
+      <c r="L31" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="55">
-        <v>42672</v>
-      </c>
-      <c r="I31" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="55">
-        <v>42672</v>
-      </c>
-      <c r="K31" s="53"/>
-      <c r="L31" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="M31" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="N31" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="O31" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="P31" s="55">
+      <c r="M31" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="N31" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="O31" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P31" s="50">
         <v>42681</v>
       </c>
-      <c r="Q31" s="56" t="s">
-        <v>141</v>
+      <c r="Q31" s="51" t="s">
+        <v>117</v>
       </c>
       <c r="R31" s="34"/>
       <c r="S31" s="34"/>
       <c r="T31" s="34"/>
-      <c r="U31" s="57"/>
-    </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U31" s="52"/>
+    </row>
+    <row r="32" spans="1:22" ht="33" x14ac:dyDescent="0.15">
       <c r="A32" s="29">
         <v>31</v>
       </c>
-      <c r="B32" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="55">
+      <c r="B32" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="50">
+        <v>42678</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="50">
+        <v>42678</v>
+      </c>
+      <c r="K32" s="48"/>
+      <c r="L32" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="N32" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="O32" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P32" s="50">
         <v>42681</v>
       </c>
-      <c r="I32" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="J32" s="55">
-        <v>42681</v>
-      </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="M32" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="N32" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="O32" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="P32" s="55">
-        <v>42681</v>
-      </c>
-      <c r="Q32" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="R32" s="62"/>
+      <c r="Q32" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="R32" s="34"/>
       <c r="S32" s="34"/>
       <c r="T32" s="34"/>
-      <c r="U32" s="35"/>
+      <c r="U32" s="52"/>
     </row>
     <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="29">
         <v>32</v>
       </c>
-      <c r="B33" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" s="53" t="s">
+      <c r="B33" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33" s="55">
+      <c r="G33" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="50">
+        <v>42678</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="50">
+        <v>42678</v>
+      </c>
+      <c r="K33" s="49"/>
+      <c r="L33" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="M33" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="N33" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="O33" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P33" s="50">
         <v>42681</v>
       </c>
-      <c r="I33" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="J33" s="55">
-        <v>42681</v>
-      </c>
-      <c r="K33" s="53"/>
-      <c r="L33" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="M33" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="N33" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="O33" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="P33" s="55">
-        <v>42681</v>
-      </c>
-      <c r="Q33" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="R33" s="62"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="35"/>
-    </row>
-    <row r="34" spans="1:21" ht="33" x14ac:dyDescent="0.15">
+      <c r="Q33" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="54"/>
+    </row>
+    <row r="34" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A34" s="29">
         <v>33</v>
       </c>
-      <c r="B34" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>136</v>
+      <c r="B34" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>144</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" s="50">
+        <v>42681</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K34" s="48"/>
+      <c r="L34" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="M34" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="N34" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="55">
+      <c r="O34" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P34" s="50">
         <v>42681</v>
       </c>
-      <c r="I34" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="J34" s="55">
-        <v>42681</v>
-      </c>
-      <c r="K34" s="65"/>
-      <c r="L34" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="M34" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="N34" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="O34" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="P34" s="55">
-        <v>42681</v>
-      </c>
-      <c r="Q34" s="56" t="s">
-        <v>148</v>
+      <c r="Q34" s="51" t="s">
+        <v>117</v>
       </c>
       <c r="R34" s="34"/>
       <c r="S34" s="34"/>
       <c r="T34" s="34"/>
-      <c r="U34" s="35"/>
+      <c r="U34" s="65" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="29">
         <v>34</v>
       </c>
-      <c r="B35" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="61" t="s">
-        <v>136</v>
+      <c r="B35" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>167</v>
       </c>
       <c r="D35" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="50">
+        <v>42681</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="J35" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K35" s="48"/>
+      <c r="L35" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="M35" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="N35" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="F35" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" s="55">
+      <c r="O35" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P35" s="50">
         <v>42681</v>
       </c>
-      <c r="I35" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="J35" s="55">
-        <v>42681</v>
-      </c>
-      <c r="K35" s="65"/>
-      <c r="L35" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="M35" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="N35" s="53"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="56"/>
+      <c r="Q35" s="51" t="s">
+        <v>117</v>
+      </c>
       <c r="R35" s="34"/>
       <c r="S35" s="34"/>
       <c r="T35" s="34"/>
-      <c r="U35" s="35"/>
-    </row>
-    <row r="36" spans="1:21" ht="33" x14ac:dyDescent="0.15">
+      <c r="U35" s="52"/>
+    </row>
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="29">
         <v>35</v>
       </c>
-      <c r="B36" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>136</v>
+      <c r="B36" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>144</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="50">
+        <v>42681</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K36" s="48"/>
+      <c r="L36" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="M36" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="N36" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="G36" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="55">
+      <c r="O36" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P36" s="50">
         <v>42681</v>
       </c>
-      <c r="I36" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="J36" s="55">
-        <v>42681</v>
-      </c>
-      <c r="K36" s="65"/>
-      <c r="L36" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="M36" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="N36" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="O36" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="P36" s="55">
-        <v>42681</v>
-      </c>
-      <c r="Q36" s="56" t="s">
-        <v>163</v>
+      <c r="Q36" s="51" t="s">
+        <v>117</v>
       </c>
       <c r="R36" s="34"/>
       <c r="S36" s="34"/>
       <c r="T36" s="34"/>
-      <c r="U36" s="35"/>
+      <c r="U36" s="52"/>
     </row>
     <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="29">
         <v>36</v>
       </c>
-      <c r="B37" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="61" t="s">
-        <v>136</v>
+      <c r="B37" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>144</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="50">
+        <v>42681</v>
+      </c>
+      <c r="I37" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K37" s="48"/>
+      <c r="L37" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="M37" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="N37" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37" s="55">
+      <c r="O37" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P37" s="50">
         <v>42681</v>
       </c>
-      <c r="I37" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="J37" s="55">
-        <v>42681</v>
-      </c>
-      <c r="K37" s="65"/>
-      <c r="L37" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="M37" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="N37" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="O37" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="P37" s="55">
-        <v>42681</v>
-      </c>
-      <c r="Q37" s="56" t="s">
-        <v>148</v>
+      <c r="Q37" s="51" t="s">
+        <v>177</v>
       </c>
       <c r="R37" s="34"/>
       <c r="S37" s="34"/>
       <c r="T37" s="34"/>
-      <c r="U37" s="35"/>
+      <c r="U37" s="52"/>
     </row>
     <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="29">
         <v>37</v>
       </c>
-      <c r="B38" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="61" t="s">
-        <v>136</v>
+      <c r="B38" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>149</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="G38" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="55">
+      <c r="E38" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="50">
         <v>42681</v>
       </c>
-      <c r="I38" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="J38" s="55">
+      <c r="I38" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="J38" s="50">
         <v>42681</v>
       </c>
-      <c r="K38" s="65"/>
-      <c r="L38" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="M38" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="N38" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="O38" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="P38" s="55">
+      <c r="K38" s="48"/>
+      <c r="L38" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="M38" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="N38" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="O38" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38" s="50">
         <v>42681</v>
       </c>
-      <c r="Q38" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="R38" s="34">
-        <v>4411</v>
-      </c>
+      <c r="Q38" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="R38" s="34"/>
       <c r="S38" s="34"/>
       <c r="T38" s="34"/>
-      <c r="U38" s="35"/>
+      <c r="U38" s="52"/>
     </row>
     <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="29">
         <v>38</v>
       </c>
-      <c r="B39" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="61" t="s">
-        <v>136</v>
+      <c r="B39" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>144</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="55">
+      <c r="E39" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="50">
         <v>42681</v>
       </c>
-      <c r="I39" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="J39" s="55">
+      <c r="I39" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" s="50">
         <v>42681</v>
       </c>
-      <c r="K39" s="65"/>
-      <c r="L39" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="M39" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="N39" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="O39" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="P39" s="55">
+      <c r="K39" s="48"/>
+      <c r="L39" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="M39" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="N39" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="O39" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P39" s="50">
         <v>42681</v>
       </c>
-      <c r="Q39" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="R39" s="34">
-        <v>4481</v>
-      </c>
+      <c r="Q39" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="R39" s="34"/>
       <c r="S39" s="34"/>
       <c r="T39" s="34"/>
-      <c r="U39" s="35"/>
+      <c r="U39" s="52"/>
     </row>
     <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="29">
         <v>39</v>
       </c>
-      <c r="B40" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="61" t="s">
-        <v>136</v>
+      <c r="B40" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>167</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="H40" s="55">
+        <v>180</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="50">
         <v>42681</v>
       </c>
-      <c r="I40" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="J40" s="55">
+      <c r="I40" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="J40" s="50">
         <v>42681</v>
       </c>
-      <c r="K40" s="65"/>
-      <c r="L40" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="M40" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="N40" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="O40" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="P40" s="55">
+      <c r="K40" s="48"/>
+      <c r="L40" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="M40" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="N40" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="O40" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P40" s="50">
         <v>42681</v>
       </c>
-      <c r="Q40" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="R40" s="34">
-        <v>4492</v>
-      </c>
+      <c r="Q40" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="R40" s="34"/>
       <c r="S40" s="34"/>
       <c r="T40" s="34"/>
-      <c r="U40" s="35"/>
+      <c r="U40" s="52"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="29">
         <v>40</v>
       </c>
-      <c r="B41" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="61" t="s">
+      <c r="B41" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="64" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="G41" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="H41" s="55">
+      <c r="G41" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="50">
         <v>42681</v>
       </c>
-      <c r="I41" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="J41" s="55">
+      <c r="I41" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="J41" s="50">
         <v>42681</v>
       </c>
-      <c r="K41" s="65"/>
-      <c r="L41" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="M41" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="N41" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="O41" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="P41" s="55">
+      <c r="K41" s="48"/>
+      <c r="L41" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="M41" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="N41" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="O41" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P41" s="50">
         <v>42681</v>
       </c>
-      <c r="Q41" s="56" t="s">
-        <v>148</v>
+      <c r="Q41" s="51" t="s">
+        <v>117</v>
       </c>
       <c r="R41" s="34"/>
       <c r="S41" s="34"/>
       <c r="T41" s="34"/>
-      <c r="U41" s="35"/>
+      <c r="U41" s="52"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="34"/>
+      <c r="A42" s="29">
+        <v>41</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="50">
+        <v>42675</v>
+      </c>
+      <c r="I42" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K42" s="48"/>
+      <c r="L42" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="M42" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="N42" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="O42" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P42" s="50">
+        <v>42682</v>
+      </c>
+      <c r="Q42" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="R42" s="34">
+        <v>4011</v>
+      </c>
       <c r="S42" s="34"/>
       <c r="T42" s="34"/>
-      <c r="U42" s="35"/>
+      <c r="U42" s="52"/>
     </row>
     <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="34"/>
+      <c r="A43" s="29">
+        <v>42</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="50">
+        <v>42677</v>
+      </c>
+      <c r="I43" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="J43" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K43" s="48"/>
+      <c r="L43" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="M43" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="N43" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="O43" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P43" s="50">
+        <v>42682</v>
+      </c>
+      <c r="Q43" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="R43" s="34">
+        <v>4396</v>
+      </c>
       <c r="S43" s="34"/>
       <c r="T43" s="34"/>
-      <c r="U43" s="35"/>
+      <c r="U43" s="52"/>
     </row>
     <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="34"/>
+      <c r="A44" s="29">
+        <v>43</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" s="50">
+        <v>42668</v>
+      </c>
+      <c r="I44" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="J44" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K44" s="48"/>
+      <c r="L44" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="M44" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="N44" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="O44" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P44" s="50">
+        <v>42682</v>
+      </c>
+      <c r="Q44" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="R44" s="34">
+        <v>4060</v>
+      </c>
       <c r="S44" s="34"/>
       <c r="T44" s="34"/>
-      <c r="U44" s="35"/>
+      <c r="U44" s="52"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="34"/>
@@ -6713,28 +6958,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -7773,73 +8018,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="A1" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>20</v>

--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="239">
   <si>
     <t>No</t>
   </si>
@@ -802,12 +802,211 @@
     <t>partner、partnerpc、renter、renterembed、renterembed-fe、payapi</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码项目增加白名单短信限制</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>新特性</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码项目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛冠宙</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号对接七陌客服</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Memcache 代码逻辑优化改造</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>新特性</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC、WAP&amp;租客APP&amp;扫码项目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动专题模板动态化调整</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>新特性</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC、WAP&amp;租客APP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东活跃分BS系统文案修改</t>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复租客APP的首页banner排序</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix  Bug</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复官网房间详情页室友过多导致页面样式扭曲的问题</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix  Bug</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复租客PC房间详情页交通反向的问题</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修渠道枚举整合</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码项目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -906,6 +1105,18 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1074,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,6 +1460,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,17 +1484,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1654,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2235,7 +2458,7 @@
       <c r="M10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="N10" s="58" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="37" t="s">
@@ -3133,7 +3356,7 @@
       <c r="Q26" s="51"/>
       <c r="R26" s="55"/>
       <c r="S26" s="55"/>
-      <c r="T26" s="63" t="s">
+      <c r="T26" s="59" t="s">
         <v>88</v>
       </c>
       <c r="U26" s="54"/>
@@ -3533,7 +3756,7 @@
       <c r="C34" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="60" t="s">
         <v>163</v>
       </c>
       <c r="E34" s="48" t="s">
@@ -3576,7 +3799,7 @@
       <c r="R34" s="34"/>
       <c r="S34" s="34"/>
       <c r="T34" s="34"/>
-      <c r="U34" s="65" t="s">
+      <c r="U34" s="61" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3590,7 +3813,7 @@
       <c r="C35" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="60" t="s">
         <v>168</v>
       </c>
       <c r="E35" s="48" t="s">
@@ -3645,7 +3868,7 @@
       <c r="C36" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="60" t="s">
         <v>171</v>
       </c>
       <c r="E36" s="48" t="s">
@@ -3700,7 +3923,7 @@
       <c r="C37" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="60" t="s">
         <v>174</v>
       </c>
       <c r="E37" s="48" t="s">
@@ -3755,7 +3978,7 @@
       <c r="C38" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="60" t="s">
         <v>178</v>
       </c>
       <c r="E38" s="48" t="s">
@@ -3810,7 +4033,7 @@
       <c r="C39" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="64" t="s">
+      <c r="D39" s="60" t="s">
         <v>153</v>
       </c>
       <c r="E39" s="48" t="s">
@@ -3865,7 +4088,7 @@
       <c r="C40" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="60" t="s">
         <v>180</v>
       </c>
       <c r="E40" s="48" t="s">
@@ -3920,7 +4143,7 @@
       <c r="C41" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="60" t="s">
         <v>157</v>
       </c>
       <c r="E41" s="48" t="s">
@@ -3975,7 +4198,7 @@
       <c r="C42" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="60" t="s">
         <v>159</v>
       </c>
       <c r="E42" s="48" t="s">
@@ -4032,7 +4255,7 @@
       <c r="C43" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="60" t="s">
         <v>161</v>
       </c>
       <c r="E43" s="48" t="s">
@@ -4089,7 +4312,7 @@
       <c r="C44" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="60" t="s">
         <v>162</v>
       </c>
       <c r="E44" s="48" t="s">
@@ -4137,207 +4360,501 @@
       <c r="U44" s="52"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="35"/>
+      <c r="A45" s="29">
+        <v>44</v>
+      </c>
+      <c r="B45" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="H45" s="50">
+        <v>42681</v>
+      </c>
+      <c r="I45" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="J45" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K45" s="48"/>
+      <c r="L45" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="M45" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="N45" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="O45" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="P45" s="50">
+        <v>42681</v>
+      </c>
+      <c r="Q45" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="52"/>
     </row>
     <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="35"/>
-    </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="35"/>
+      <c r="A46" s="29">
+        <v>45</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" s="50">
+        <v>42681</v>
+      </c>
+      <c r="I46" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="J46" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K46" s="48"/>
+      <c r="L46" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="M46" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="N46" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="O46" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="P46" s="50">
+        <v>42681</v>
+      </c>
+      <c r="Q46" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="52"/>
+    </row>
+    <row r="47" spans="1:21" ht="33" x14ac:dyDescent="0.15">
+      <c r="A47" s="29">
+        <v>46</v>
+      </c>
+      <c r="B47" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="H47" s="50">
+        <v>42681</v>
+      </c>
+      <c r="I47" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K47" s="69"/>
+      <c r="L47" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="M47" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="N47" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="O47" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="P47" s="50">
+        <v>42681</v>
+      </c>
+      <c r="Q47" s="51" t="s">
+        <v>213</v>
+      </c>
       <c r="R47" s="34"/>
       <c r="S47" s="34"/>
       <c r="T47" s="34"/>
       <c r="U47" s="35"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="35"/>
+    <row r="48" spans="1:21" ht="33" x14ac:dyDescent="0.15">
+      <c r="A48" s="29">
+        <v>47</v>
+      </c>
+      <c r="B48" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="H48" s="50">
+        <v>42681</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="J48" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K48" s="69"/>
+      <c r="L48" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="M48" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="N48" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="O48" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="P48" s="50">
+        <v>42681</v>
+      </c>
+      <c r="Q48" s="51" t="s">
+        <v>200</v>
+      </c>
       <c r="R48" s="34"/>
       <c r="S48" s="34"/>
       <c r="T48" s="34"/>
       <c r="U48" s="35"/>
     </row>
     <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="35"/>
+      <c r="A49" s="29">
+        <v>48</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="H49" s="50">
+        <v>42681</v>
+      </c>
+      <c r="I49" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="J49" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K49" s="69"/>
+      <c r="L49" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="M49" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="N49" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="O49" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="P49" s="50">
+        <v>42681</v>
+      </c>
+      <c r="Q49" s="51" t="s">
+        <v>213</v>
+      </c>
       <c r="R49" s="34"/>
       <c r="S49" s="34"/>
       <c r="T49" s="34"/>
       <c r="U49" s="35"/>
     </row>
     <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="34"/>
+      <c r="A50" s="29">
+        <v>49</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" s="50">
+        <v>42681</v>
+      </c>
+      <c r="I50" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J50" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K50" s="69"/>
+      <c r="L50" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="M50" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="N50" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="O50" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="P50" s="50">
+        <v>42681</v>
+      </c>
+      <c r="Q50" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="R50" s="34">
+        <v>4411</v>
+      </c>
       <c r="S50" s="34"/>
       <c r="T50" s="34"/>
       <c r="U50" s="35"/>
     </row>
     <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="34"/>
+      <c r="A51" s="29">
+        <v>50</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="H51" s="50">
+        <v>42681</v>
+      </c>
+      <c r="I51" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J51" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K51" s="69"/>
+      <c r="L51" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="M51" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="N51" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="O51" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="P51" s="50">
+        <v>42681</v>
+      </c>
+      <c r="Q51" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="R51" s="34">
+        <v>4481</v>
+      </c>
       <c r="S51" s="34"/>
       <c r="T51" s="34"/>
       <c r="U51" s="35"/>
     </row>
     <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="34"/>
+      <c r="A52" s="29">
+        <v>51</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="H52" s="50">
+        <v>42681</v>
+      </c>
+      <c r="I52" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J52" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K52" s="69"/>
+      <c r="L52" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="M52" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="N52" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="O52" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="P52" s="50">
+        <v>42681</v>
+      </c>
+      <c r="Q52" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="R52" s="34">
+        <v>4492</v>
+      </c>
       <c r="S52" s="34"/>
       <c r="T52" s="34"/>
       <c r="U52" s="35"/>
     </row>
     <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="35"/>
+      <c r="A53" s="29">
+        <v>52</v>
+      </c>
+      <c r="B53" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="H53" s="50">
+        <v>42681</v>
+      </c>
+      <c r="I53" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="J53" s="50">
+        <v>42681</v>
+      </c>
+      <c r="K53" s="69"/>
+      <c r="L53" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="M53" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="N53" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="O53" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="P53" s="50">
+        <v>42681</v>
+      </c>
+      <c r="Q53" s="51" t="s">
+        <v>213</v>
+      </c>
       <c r="R53" s="34"/>
       <c r="S53" s="34"/>
       <c r="T53" s="34"/>
@@ -8018,36 +8535,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">

--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12636"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.5新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="236">
   <si>
     <t>No</t>
   </si>
@@ -815,10 +815,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>新特性</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>扫码项目</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -875,10 +871,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>新特性</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>租客PC、WAP&amp;租客APP&amp;扫码项目</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -908,10 +900,6 @@
   </si>
   <si>
     <t>活动专题模板动态化调整</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>新特性</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1472,6 +1460,18 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,18 +1483,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1877,37 +1865,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="25" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="64.75" style="26" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="25" customWidth="1"/>
+    <col min="2" max="3" width="9.88671875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="64.77734375" style="26" customWidth="1"/>
     <col min="5" max="5" width="15" style="25" customWidth="1"/>
     <col min="6" max="6" width="18" style="25" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="26" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="13.375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="25" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="26" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="26" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="25" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" style="25" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="25" customWidth="1"/>
     <col min="15" max="15" width="10" style="26" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="26" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="26" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="26" customWidth="1"/>
     <col min="18" max="18" width="12" style="27" customWidth="1"/>
     <col min="19" max="19" width="17" style="27" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="27" customWidth="1"/>
-    <col min="21" max="21" width="41.875" style="26" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" style="27" customWidth="1"/>
+    <col min="21" max="21" width="41.88671875" style="26" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="23" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1972,7 +1960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -2028,7 +2016,7 @@
       <c r="U2" s="42"/>
       <c r="V2" s="43"/>
     </row>
-    <row r="3" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -2084,7 +2072,7 @@
       <c r="U3" s="44"/>
       <c r="V3" s="43"/>
     </row>
-    <row r="4" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -2140,7 +2128,7 @@
       <c r="U4" s="42"/>
       <c r="V4" s="43"/>
     </row>
-    <row r="5" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -2196,7 +2184,7 @@
       <c r="U5" s="44"/>
       <c r="V5" s="43"/>
     </row>
-    <row r="6" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -2252,7 +2240,7 @@
       <c r="U6" s="44"/>
       <c r="V6" s="43"/>
     </row>
-    <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -2308,7 +2296,7 @@
       <c r="U7" s="44"/>
       <c r="V7" s="43"/>
     </row>
-    <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -2364,7 +2352,7 @@
       <c r="U8" s="44"/>
       <c r="V8" s="43"/>
     </row>
-    <row r="9" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -2420,7 +2408,7 @@
       <c r="U9" s="44"/>
       <c r="V9" s="43"/>
     </row>
-    <row r="10" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -2476,7 +2464,7 @@
       <c r="U10" s="44"/>
       <c r="V10" s="43"/>
     </row>
-    <row r="11" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -2532,7 +2520,7 @@
       <c r="U11" s="44"/>
       <c r="V11" s="43"/>
     </row>
-    <row r="12" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -2588,7 +2576,7 @@
       <c r="U12" s="44"/>
       <c r="V12" s="43"/>
     </row>
-    <row r="13" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -2644,7 +2632,7 @@
       <c r="U13" s="44"/>
       <c r="V13" s="43"/>
     </row>
-    <row r="14" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -2700,7 +2688,7 @@
       <c r="U14" s="44"/>
       <c r="V14" s="43"/>
     </row>
-    <row r="15" spans="1:22" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -2756,7 +2744,7 @@
       <c r="U15" s="44"/>
       <c r="V15" s="43"/>
     </row>
-    <row r="16" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -2812,7 +2800,7 @@
       <c r="U16" s="44"/>
       <c r="V16" s="43"/>
     </row>
-    <row r="17" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -2868,7 +2856,7 @@
       <c r="U17" s="46"/>
       <c r="V17" s="43"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>17</v>
       </c>
@@ -2923,7 +2911,7 @@
       <c r="T18" s="34"/>
       <c r="U18" s="35"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -2978,7 +2966,7 @@
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -3033,7 +3021,7 @@
       <c r="T20" s="34"/>
       <c r="U20" s="35"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -3088,7 +3076,7 @@
       <c r="T21" s="34"/>
       <c r="U21" s="52"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -3143,7 +3131,7 @@
       <c r="T22" s="34"/>
       <c r="U22" s="52"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -3198,7 +3186,7 @@
       <c r="T23" s="34"/>
       <c r="U23" s="52"/>
     </row>
-    <row r="24" spans="1:22" ht="33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -3253,7 +3241,7 @@
       <c r="T24" s="53"/>
       <c r="U24" s="54"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -3310,7 +3298,7 @@
       <c r="T25" s="55"/>
       <c r="U25" s="54"/>
     </row>
-    <row r="26" spans="1:22" ht="66" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -3361,7 +3349,7 @@
       </c>
       <c r="U26" s="54"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>26</v>
       </c>
@@ -3416,7 +3404,7 @@
       <c r="T27" s="55"/>
       <c r="U27" s="54"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -3471,7 +3459,7 @@
       <c r="T28" s="55"/>
       <c r="U28" s="54"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -3526,7 +3514,7 @@
       <c r="T29" s="57"/>
       <c r="U29" s="51"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -3581,7 +3569,7 @@
       <c r="T30" s="34"/>
       <c r="U30" s="52"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -3636,7 +3624,7 @@
       <c r="T31" s="34"/>
       <c r="U31" s="52"/>
     </row>
-    <row r="32" spans="1:22" ht="33" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -3691,7 +3679,7 @@
       <c r="T32" s="34"/>
       <c r="U32" s="52"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>32</v>
       </c>
@@ -3746,7 +3734,7 @@
       <c r="T33" s="55"/>
       <c r="U33" s="54"/>
     </row>
-    <row r="34" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -3803,7 +3791,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>34</v>
       </c>
@@ -3858,7 +3846,7 @@
       <c r="T35" s="34"/>
       <c r="U35" s="52"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>35</v>
       </c>
@@ -3913,7 +3901,7 @@
       <c r="T36" s="34"/>
       <c r="U36" s="52"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>36</v>
       </c>
@@ -3968,7 +3956,7 @@
       <c r="T37" s="34"/>
       <c r="U37" s="52"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>37</v>
       </c>
@@ -4023,7 +4011,7 @@
       <c r="T38" s="34"/>
       <c r="U38" s="52"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>38</v>
       </c>
@@ -4078,7 +4066,7 @@
       <c r="T39" s="34"/>
       <c r="U39" s="52"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>39</v>
       </c>
@@ -4133,7 +4121,7 @@
       <c r="T40" s="34"/>
       <c r="U40" s="52"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>40</v>
       </c>
@@ -4188,7 +4176,7 @@
       <c r="T41" s="34"/>
       <c r="U41" s="52"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>41</v>
       </c>
@@ -4245,7 +4233,7 @@
       <c r="T42" s="34"/>
       <c r="U42" s="52"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>42</v>
       </c>
@@ -4302,7 +4290,7 @@
       <c r="T43" s="34"/>
       <c r="U43" s="52"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
         <v>43</v>
       </c>
@@ -4359,330 +4347,330 @@
       <c r="T44" s="34"/>
       <c r="U44" s="52"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>44</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="63" t="s">
         <v>191</v>
       </c>
       <c r="E45" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="G45" s="48" t="s">
         <v>193</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>194</v>
       </c>
       <c r="H45" s="50">
         <v>42681</v>
       </c>
       <c r="I45" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J45" s="50">
         <v>42681</v>
       </c>
       <c r="K45" s="48"/>
       <c r="L45" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="M45" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="M45" s="51" t="s">
+      <c r="N45" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="N45" s="48" t="s">
+      <c r="O45" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="O45" s="51" t="s">
-        <v>199</v>
       </c>
       <c r="P45" s="50">
         <v>42681</v>
       </c>
       <c r="Q45" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R45" s="57"/>
       <c r="S45" s="57"/>
       <c r="T45" s="57"/>
       <c r="U45" s="52"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>45</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="C46" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" s="67" t="s">
-        <v>202</v>
-      </c>
       <c r="E46" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="G46" s="48" t="s">
         <v>193</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>194</v>
       </c>
       <c r="H46" s="50">
         <v>42681</v>
       </c>
       <c r="I46" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J46" s="50">
         <v>42681</v>
       </c>
       <c r="K46" s="48"/>
       <c r="L46" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="M46" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="M46" s="51" t="s">
-        <v>197</v>
-      </c>
       <c r="N46" s="48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O46" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P46" s="50">
         <v>42681</v>
       </c>
       <c r="Q46" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R46" s="57"/>
       <c r="S46" s="57"/>
       <c r="T46" s="57"/>
       <c r="U46" s="52"/>
     </row>
-    <row r="47" spans="1:21" ht="33" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>46</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="E47" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="G47" s="48" t="s">
         <v>207</v>
-      </c>
-      <c r="F47" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>209</v>
       </c>
       <c r="H47" s="50">
         <v>42681</v>
       </c>
       <c r="I47" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J47" s="50">
         <v>42681</v>
       </c>
-      <c r="K47" s="69"/>
+      <c r="K47" s="65"/>
       <c r="L47" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="M47" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="N47" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="O47" s="51" t="s">
         <v>210</v>
-      </c>
-      <c r="M47" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="N47" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="O47" s="51" t="s">
-        <v>212</v>
       </c>
       <c r="P47" s="50">
         <v>42681</v>
       </c>
       <c r="Q47" s="51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R47" s="34"/>
       <c r="S47" s="34"/>
       <c r="T47" s="34"/>
       <c r="U47" s="35"/>
     </row>
-    <row r="48" spans="1:21" ht="33" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>47</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="C48" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="D48" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="F48" s="48" t="s">
-        <v>217</v>
-      </c>
       <c r="G48" s="48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H48" s="50">
         <v>42681</v>
       </c>
       <c r="I48" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J48" s="50">
         <v>42681</v>
       </c>
-      <c r="K48" s="69"/>
+      <c r="K48" s="65"/>
       <c r="L48" s="51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M48" s="51" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N48" s="48" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O48" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P48" s="50">
         <v>42681</v>
       </c>
       <c r="Q48" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R48" s="34"/>
       <c r="S48" s="34"/>
       <c r="T48" s="34"/>
       <c r="U48" s="35"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>48</v>
       </c>
-      <c r="B49" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" s="68" t="s">
-        <v>222</v>
+      <c r="B49" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>219</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="F49" s="48" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H49" s="50">
         <v>42681</v>
       </c>
       <c r="I49" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J49" s="50">
         <v>42681</v>
       </c>
-      <c r="K49" s="69"/>
+      <c r="K49" s="65"/>
       <c r="L49" s="51" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M49" s="51" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N49" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O49" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P49" s="50">
         <v>42681</v>
       </c>
       <c r="Q49" s="51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R49" s="34"/>
       <c r="S49" s="34"/>
       <c r="T49" s="34"/>
       <c r="U49" s="35"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>49</v>
       </c>
-      <c r="B50" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="D50" s="68" t="s">
-        <v>226</v>
+      <c r="B50" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>223</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F50" s="48" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G50" s="48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H50" s="50">
         <v>42681</v>
       </c>
       <c r="I50" s="50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J50" s="50">
         <v>42681</v>
       </c>
-      <c r="K50" s="69"/>
+      <c r="K50" s="65"/>
       <c r="L50" s="51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M50" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N50" s="48" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O50" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P50" s="50">
         <v>42681</v>
       </c>
       <c r="Q50" s="51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R50" s="34">
         <v>4411</v>
@@ -4691,55 +4679,55 @@
       <c r="T50" s="34"/>
       <c r="U50" s="35"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>50</v>
       </c>
-      <c r="B51" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="C51" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" s="68" t="s">
-        <v>230</v>
+      <c r="B51" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G51" s="48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H51" s="50">
         <v>42681</v>
       </c>
       <c r="I51" s="50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J51" s="50">
         <v>42681</v>
       </c>
-      <c r="K51" s="69"/>
+      <c r="K51" s="65"/>
       <c r="L51" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M51" s="51" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N51" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="O51" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="O51" s="51" t="s">
-        <v>199</v>
       </c>
       <c r="P51" s="50">
         <v>42681</v>
       </c>
       <c r="Q51" s="51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R51" s="34">
         <v>4481</v>
@@ -4748,55 +4736,55 @@
       <c r="T51" s="34"/>
       <c r="U51" s="35"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>51</v>
       </c>
-      <c r="B52" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="C52" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" s="68" t="s">
-        <v>234</v>
+      <c r="B52" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>231</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G52" s="48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H52" s="50">
         <v>42681</v>
       </c>
       <c r="I52" s="50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J52" s="50">
         <v>42681</v>
       </c>
-      <c r="K52" s="69"/>
+      <c r="K52" s="65"/>
       <c r="L52" s="51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M52" s="51" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N52" s="48" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O52" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P52" s="50">
         <v>42681</v>
       </c>
       <c r="Q52" s="51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R52" s="34">
         <v>4492</v>
@@ -4805,62 +4793,62 @@
       <c r="T52" s="34"/>
       <c r="U52" s="35"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
         <v>52</v>
       </c>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="C53" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="D53" s="68" t="s">
-        <v>235</v>
+      <c r="C53" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>232</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H53" s="50">
         <v>42681</v>
       </c>
       <c r="I53" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J53" s="50">
         <v>42681</v>
       </c>
-      <c r="K53" s="69"/>
+      <c r="K53" s="65"/>
       <c r="L53" s="51" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M53" s="51" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N53" s="48" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O53" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P53" s="50">
         <v>42681</v>
       </c>
       <c r="Q53" s="51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R53" s="34"/>
       <c r="S53" s="34"/>
       <c r="T53" s="34"/>
       <c r="U53" s="35"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -4883,7 +4871,7 @@
       <c r="T54" s="34"/>
       <c r="U54" s="35"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="34"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -4906,7 +4894,7 @@
       <c r="T55" s="34"/>
       <c r="U55" s="35"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -4929,7 +4917,7 @@
       <c r="T56" s="34"/>
       <c r="U56" s="35"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -4952,7 +4940,7 @@
       <c r="T57" s="34"/>
       <c r="U57" s="35"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -4975,7 +4963,7 @@
       <c r="T58" s="34"/>
       <c r="U58" s="35"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="34"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -4998,7 +4986,7 @@
       <c r="T59" s="34"/>
       <c r="U59" s="35"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -5021,7 +5009,7 @@
       <c r="T60" s="34"/>
       <c r="U60" s="35"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
@@ -5044,7 +5032,7 @@
       <c r="T61" s="34"/>
       <c r="U61" s="35"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
@@ -5067,7 +5055,7 @@
       <c r="T62" s="34"/>
       <c r="U62" s="35"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
@@ -5090,7 +5078,7 @@
       <c r="T63" s="34"/>
       <c r="U63" s="35"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
@@ -5113,7 +5101,7 @@
       <c r="T64" s="34"/>
       <c r="U64" s="35"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -5136,7 +5124,7 @@
       <c r="T65" s="34"/>
       <c r="U65" s="35"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
@@ -5159,7 +5147,7 @@
       <c r="T66" s="34"/>
       <c r="U66" s="35"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="34"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
@@ -5182,7 +5170,7 @@
       <c r="T67" s="34"/>
       <c r="U67" s="35"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="34"/>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -5205,7 +5193,7 @@
       <c r="T68" s="34"/>
       <c r="U68" s="35"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -5228,7 +5216,7 @@
       <c r="T69" s="34"/>
       <c r="U69" s="35"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="34"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
@@ -5251,7 +5239,7 @@
       <c r="T70" s="34"/>
       <c r="U70" s="35"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="34"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -5274,7 +5262,7 @@
       <c r="T71" s="34"/>
       <c r="U71" s="35"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="34"/>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -5297,7 +5285,7 @@
       <c r="T72" s="34"/>
       <c r="U72" s="35"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="34"/>
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
@@ -5320,7 +5308,7 @@
       <c r="T73" s="34"/>
       <c r="U73" s="35"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="34"/>
       <c r="B74" s="34"/>
       <c r="C74" s="34"/>
@@ -5343,7 +5331,7 @@
       <c r="T74" s="34"/>
       <c r="U74" s="35"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="34"/>
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
@@ -5366,7 +5354,7 @@
       <c r="T75" s="34"/>
       <c r="U75" s="35"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="34"/>
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
@@ -5389,7 +5377,7 @@
       <c r="T76" s="34"/>
       <c r="U76" s="35"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="34"/>
       <c r="B77" s="34"/>
       <c r="C77" s="34"/>
@@ -5412,7 +5400,7 @@
       <c r="T77" s="34"/>
       <c r="U77" s="35"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="34"/>
       <c r="B78" s="34"/>
       <c r="C78" s="34"/>
@@ -5435,7 +5423,7 @@
       <c r="T78" s="34"/>
       <c r="U78" s="35"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="34"/>
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
@@ -5458,7 +5446,7 @@
       <c r="T79" s="34"/>
       <c r="U79" s="35"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="34"/>
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
@@ -5481,7 +5469,7 @@
       <c r="T80" s="34"/>
       <c r="U80" s="35"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="34"/>
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
@@ -5504,7 +5492,7 @@
       <c r="T81" s="34"/>
       <c r="U81" s="35"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="34"/>
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
@@ -5527,7 +5515,7 @@
       <c r="T82" s="34"/>
       <c r="U82" s="35"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="34"/>
       <c r="B83" s="34"/>
       <c r="C83" s="34"/>
@@ -5550,7 +5538,7 @@
       <c r="T83" s="34"/>
       <c r="U83" s="35"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="34"/>
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
@@ -5573,7 +5561,7 @@
       <c r="T84" s="34"/>
       <c r="U84" s="35"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="34"/>
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
@@ -5596,7 +5584,7 @@
       <c r="T85" s="34"/>
       <c r="U85" s="35"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="34"/>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -5619,7 +5607,7 @@
       <c r="T86" s="34"/>
       <c r="U86" s="35"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="34"/>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -5642,7 +5630,7 @@
       <c r="T87" s="34"/>
       <c r="U87" s="35"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="34"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -5665,7 +5653,7 @@
       <c r="T88" s="34"/>
       <c r="U88" s="35"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="34"/>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
@@ -5688,7 +5676,7 @@
       <c r="T89" s="34"/>
       <c r="U89" s="35"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="34"/>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
@@ -5711,7 +5699,7 @@
       <c r="T90" s="34"/>
       <c r="U90" s="35"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="34"/>
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
@@ -5734,7 +5722,7 @@
       <c r="T91" s="34"/>
       <c r="U91" s="35"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="34"/>
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
@@ -5757,7 +5745,7 @@
       <c r="T92" s="34"/>
       <c r="U92" s="35"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="34"/>
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
@@ -5780,7 +5768,7 @@
       <c r="T93" s="34"/>
       <c r="U93" s="35"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="34"/>
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
@@ -5803,7 +5791,7 @@
       <c r="T94" s="34"/>
       <c r="U94" s="35"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="34"/>
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
@@ -5826,7 +5814,7 @@
       <c r="T95" s="34"/>
       <c r="U95" s="35"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="34"/>
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
@@ -5849,7 +5837,7 @@
       <c r="T96" s="34"/>
       <c r="U96" s="35"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="34"/>
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
@@ -5872,7 +5860,7 @@
       <c r="T97" s="34"/>
       <c r="U97" s="35"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="34"/>
       <c r="B98" s="34"/>
       <c r="C98" s="34"/>
@@ -5895,7 +5883,7 @@
       <c r="T98" s="34"/>
       <c r="U98" s="35"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="34"/>
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
@@ -5918,7 +5906,7 @@
       <c r="T99" s="34"/>
       <c r="U99" s="35"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="34"/>
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
@@ -5941,7 +5929,7 @@
       <c r="T100" s="34"/>
       <c r="U100" s="35"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="34"/>
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
@@ -5964,7 +5952,7 @@
       <c r="T101" s="34"/>
       <c r="U101" s="35"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="34"/>
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
@@ -5987,7 +5975,7 @@
       <c r="T102" s="34"/>
       <c r="U102" s="35"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
@@ -6010,7 +5998,7 @@
       <c r="T103" s="34"/>
       <c r="U103" s="35"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="34"/>
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
@@ -6033,7 +6021,7 @@
       <c r="T104" s="34"/>
       <c r="U104" s="35"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
@@ -6056,7 +6044,7 @@
       <c r="T105" s="34"/>
       <c r="U105" s="35"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="34"/>
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>
@@ -6079,7 +6067,7 @@
       <c r="T106" s="34"/>
       <c r="U106" s="35"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="34"/>
       <c r="B107" s="34"/>
       <c r="C107" s="34"/>
@@ -6102,7 +6090,7 @@
       <c r="T107" s="34"/>
       <c r="U107" s="35"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="34"/>
       <c r="B108" s="34"/>
       <c r="C108" s="34"/>
@@ -6125,7 +6113,7 @@
       <c r="T108" s="34"/>
       <c r="U108" s="35"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="34"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
@@ -6148,7 +6136,7 @@
       <c r="T109" s="34"/>
       <c r="U109" s="35"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="34"/>
       <c r="B110" s="34"/>
       <c r="C110" s="34"/>
@@ -6171,7 +6159,7 @@
       <c r="T110" s="34"/>
       <c r="U110" s="35"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="34"/>
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
@@ -6194,7 +6182,7 @@
       <c r="T111" s="34"/>
       <c r="U111" s="35"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="34"/>
       <c r="B112" s="34"/>
       <c r="C112" s="34"/>
@@ -6217,7 +6205,7 @@
       <c r="T112" s="34"/>
       <c r="U112" s="35"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="34"/>
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
@@ -6240,7 +6228,7 @@
       <c r="T113" s="34"/>
       <c r="U113" s="35"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="34"/>
       <c r="B114" s="34"/>
       <c r="C114" s="34"/>
@@ -6263,7 +6251,7 @@
       <c r="T114" s="34"/>
       <c r="U114" s="35"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="34"/>
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
@@ -6286,7 +6274,7 @@
       <c r="T115" s="34"/>
       <c r="U115" s="35"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="34"/>
       <c r="B116" s="34"/>
       <c r="C116" s="34"/>
@@ -6309,7 +6297,7 @@
       <c r="T116" s="34"/>
       <c r="U116" s="35"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="34"/>
       <c r="B117" s="34"/>
       <c r="C117" s="34"/>
@@ -6332,7 +6320,7 @@
       <c r="T117" s="34"/>
       <c r="U117" s="35"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="34"/>
       <c r="B118" s="34"/>
       <c r="C118" s="34"/>
@@ -6355,7 +6343,7 @@
       <c r="T118" s="34"/>
       <c r="U118" s="35"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="34"/>
       <c r="B119" s="34"/>
       <c r="C119" s="34"/>
@@ -6378,7 +6366,7 @@
       <c r="T119" s="34"/>
       <c r="U119" s="35"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="34"/>
       <c r="B120" s="34"/>
       <c r="C120" s="34"/>
@@ -6401,7 +6389,7 @@
       <c r="T120" s="34"/>
       <c r="U120" s="35"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="34"/>
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
@@ -6424,7 +6412,7 @@
       <c r="T121" s="34"/>
       <c r="U121" s="35"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="34"/>
       <c r="B122" s="34"/>
       <c r="C122" s="34"/>
@@ -6447,7 +6435,7 @@
       <c r="T122" s="34"/>
       <c r="U122" s="35"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="34"/>
       <c r="B123" s="34"/>
       <c r="C123" s="34"/>
@@ -6470,7 +6458,7 @@
       <c r="T123" s="34"/>
       <c r="U123" s="35"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="34"/>
       <c r="B124" s="34"/>
       <c r="C124" s="34"/>
@@ -6493,7 +6481,7 @@
       <c r="T124" s="34"/>
       <c r="U124" s="35"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="34"/>
       <c r="B125" s="34"/>
       <c r="C125" s="34"/>
@@ -6516,7 +6504,7 @@
       <c r="T125" s="34"/>
       <c r="U125" s="35"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="34"/>
       <c r="B126" s="34"/>
       <c r="C126" s="34"/>
@@ -6539,7 +6527,7 @@
       <c r="T126" s="34"/>
       <c r="U126" s="35"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="34"/>
       <c r="B127" s="34"/>
       <c r="C127" s="34"/>
@@ -6562,7 +6550,7 @@
       <c r="T127" s="34"/>
       <c r="U127" s="35"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="34"/>
       <c r="B128" s="34"/>
       <c r="C128" s="34"/>
@@ -6585,7 +6573,7 @@
       <c r="T128" s="34"/>
       <c r="U128" s="35"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="34"/>
       <c r="B129" s="34"/>
       <c r="C129" s="34"/>
@@ -6608,7 +6596,7 @@
       <c r="T129" s="34"/>
       <c r="U129" s="35"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="34"/>
       <c r="B130" s="34"/>
       <c r="C130" s="34"/>
@@ -6631,7 +6619,7 @@
       <c r="T130" s="34"/>
       <c r="U130" s="35"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="34"/>
       <c r="B131" s="34"/>
       <c r="C131" s="34"/>
@@ -6654,7 +6642,7 @@
       <c r="T131" s="34"/>
       <c r="U131" s="35"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="34"/>
       <c r="B132" s="34"/>
       <c r="C132" s="34"/>
@@ -6677,7 +6665,7 @@
       <c r="T132" s="34"/>
       <c r="U132" s="35"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="34"/>
       <c r="B133" s="34"/>
       <c r="C133" s="34"/>
@@ -6700,7 +6688,7 @@
       <c r="T133" s="34"/>
       <c r="U133" s="35"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="34"/>
       <c r="B134" s="34"/>
       <c r="C134" s="34"/>
@@ -6723,7 +6711,7 @@
       <c r="T134" s="34"/>
       <c r="U134" s="35"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="34"/>
       <c r="B135" s="34"/>
       <c r="C135" s="34"/>
@@ -6746,7 +6734,7 @@
       <c r="T135" s="34"/>
       <c r="U135" s="35"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="34"/>
       <c r="B136" s="34"/>
       <c r="C136" s="34"/>
@@ -6766,7 +6754,7 @@
       <c r="Q136" s="35"/>
       <c r="U136" s="35"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="34"/>
       <c r="B137" s="34"/>
       <c r="C137" s="34"/>
@@ -6786,7 +6774,7 @@
       <c r="Q137" s="35"/>
       <c r="U137" s="35"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="34"/>
       <c r="B138" s="34"/>
       <c r="C138" s="34"/>
@@ -6806,7 +6794,7 @@
       <c r="Q138" s="35"/>
       <c r="U138" s="35"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="34"/>
       <c r="B139" s="34"/>
       <c r="C139" s="34"/>
@@ -6826,7 +6814,7 @@
       <c r="Q139" s="35"/>
       <c r="U139" s="35"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="34"/>
       <c r="B140" s="34"/>
       <c r="C140" s="34"/>
@@ -6846,7 +6834,7 @@
       <c r="Q140" s="35"/>
       <c r="U140" s="35"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="34"/>
       <c r="B141" s="34"/>
       <c r="C141" s="34"/>
@@ -6866,7 +6854,7 @@
       <c r="Q141" s="35"/>
       <c r="U141" s="35"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="34"/>
       <c r="B142" s="34"/>
       <c r="C142" s="34"/>
@@ -6886,7 +6874,7 @@
       <c r="Q142" s="35"/>
       <c r="U142" s="35"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="34"/>
       <c r="B143" s="34"/>
       <c r="C143" s="34"/>
@@ -6906,7 +6894,7 @@
       <c r="Q143" s="35"/>
       <c r="U143" s="35"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="34"/>
       <c r="B144" s="34"/>
       <c r="C144" s="34"/>
@@ -6926,7 +6914,7 @@
       <c r="Q144" s="35"/>
       <c r="U144" s="35"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="34"/>
       <c r="B145" s="34"/>
       <c r="C145" s="34"/>
@@ -6946,7 +6934,7 @@
       <c r="Q145" s="35"/>
       <c r="U145" s="35"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="34"/>
       <c r="B146" s="34"/>
       <c r="C146" s="34"/>
@@ -6966,7 +6954,7 @@
       <c r="Q146" s="35"/>
       <c r="U146" s="35"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="34"/>
       <c r="B147" s="34"/>
       <c r="C147" s="34"/>
@@ -6986,7 +6974,7 @@
       <c r="Q147" s="35"/>
       <c r="U147" s="35"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="34"/>
       <c r="B148" s="34"/>
       <c r="C148" s="34"/>
@@ -7006,7 +6994,7 @@
       <c r="Q148" s="35"/>
       <c r="U148" s="35"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="34"/>
       <c r="B149" s="34"/>
       <c r="C149" s="34"/>
@@ -7026,7 +7014,7 @@
       <c r="Q149" s="35"/>
       <c r="U149" s="35"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="34"/>
       <c r="B150" s="34"/>
       <c r="C150" s="34"/>
@@ -7046,7 +7034,7 @@
       <c r="Q150" s="35"/>
       <c r="U150" s="35"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="34"/>
       <c r="B151" s="34"/>
       <c r="C151" s="34"/>
@@ -7066,7 +7054,7 @@
       <c r="Q151" s="35"/>
       <c r="U151" s="35"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="34"/>
       <c r="B152" s="34"/>
       <c r="C152" s="34"/>
@@ -7086,7 +7074,7 @@
       <c r="Q152" s="35"/>
       <c r="U152" s="35"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="34"/>
       <c r="B153" s="34"/>
       <c r="C153" s="34"/>
@@ -7106,7 +7094,7 @@
       <c r="Q153" s="35"/>
       <c r="U153" s="35"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="34"/>
       <c r="B154" s="34"/>
       <c r="C154" s="34"/>
@@ -7126,7 +7114,7 @@
       <c r="Q154" s="35"/>
       <c r="U154" s="35"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="34"/>
       <c r="B155" s="34"/>
       <c r="C155" s="34"/>
@@ -7146,7 +7134,7 @@
       <c r="Q155" s="35"/>
       <c r="U155" s="35"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="34"/>
       <c r="B156" s="34"/>
       <c r="C156" s="34"/>
@@ -7166,7 +7154,7 @@
       <c r="Q156" s="35"/>
       <c r="U156" s="35"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="34"/>
       <c r="B157" s="34"/>
       <c r="C157" s="34"/>
@@ -7186,7 +7174,7 @@
       <c r="Q157" s="35"/>
       <c r="U157" s="35"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="34"/>
       <c r="B158" s="34"/>
       <c r="C158" s="34"/>
@@ -7206,7 +7194,7 @@
       <c r="Q158" s="35"/>
       <c r="U158" s="35"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="34"/>
       <c r="B159" s="34"/>
       <c r="C159" s="34"/>
@@ -7226,7 +7214,7 @@
       <c r="Q159" s="35"/>
       <c r="U159" s="35"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="34"/>
       <c r="B160" s="34"/>
       <c r="C160" s="34"/>
@@ -7246,7 +7234,7 @@
       <c r="Q160" s="35"/>
       <c r="U160" s="35"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="34"/>
       <c r="B161" s="34"/>
       <c r="C161" s="34"/>
@@ -7266,7 +7254,7 @@
       <c r="Q161" s="35"/>
       <c r="U161" s="35"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="34"/>
       <c r="B162" s="34"/>
       <c r="C162" s="34"/>
@@ -7286,7 +7274,7 @@
       <c r="Q162" s="35"/>
       <c r="U162" s="35"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="34"/>
       <c r="B163" s="34"/>
       <c r="C163" s="34"/>
@@ -7306,7 +7294,7 @@
       <c r="Q163" s="35"/>
       <c r="U163" s="35"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="34"/>
       <c r="B164" s="34"/>
       <c r="C164" s="34"/>
@@ -7326,7 +7314,7 @@
       <c r="Q164" s="35"/>
       <c r="U164" s="35"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="34"/>
       <c r="B165" s="34"/>
       <c r="C165" s="34"/>
@@ -7346,7 +7334,7 @@
       <c r="Q165" s="35"/>
       <c r="U165" s="35"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="34"/>
       <c r="B166" s="34"/>
       <c r="C166" s="34"/>
@@ -7366,7 +7354,7 @@
       <c r="Q166" s="35"/>
       <c r="U166" s="35"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="34"/>
       <c r="B167" s="34"/>
       <c r="C167" s="34"/>
@@ -7386,7 +7374,7 @@
       <c r="Q167" s="35"/>
       <c r="U167" s="35"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="34"/>
       <c r="B168" s="34"/>
       <c r="C168" s="34"/>
@@ -7406,7 +7394,7 @@
       <c r="Q168" s="35"/>
       <c r="U168" s="35"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="34"/>
       <c r="B169" s="34"/>
       <c r="C169" s="34"/>
@@ -7426,7 +7414,7 @@
       <c r="Q169" s="35"/>
       <c r="U169" s="35"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="34"/>
       <c r="B170" s="34"/>
       <c r="C170" s="34"/>
@@ -7462,18 +7450,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>63</v>
       </c>
@@ -7499,7 +7487,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -7509,7 +7497,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -7519,7 +7507,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -7529,7 +7517,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -7539,7 +7527,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -7549,7 +7537,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -7559,7 +7547,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -7569,7 +7557,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -7579,7 +7567,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -7589,7 +7577,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -7599,7 +7587,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -7609,7 +7597,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -7619,7 +7607,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -7629,7 +7617,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -7639,7 +7627,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -7649,7 +7637,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -7659,7 +7647,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -7669,7 +7657,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -7698,875 +7686,875 @@
       <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="91.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
     <col min="12" max="12" width="9" style="4" customWidth="1"/>
-    <col min="13" max="13" width="29.625" customWidth="1"/>
-    <col min="257" max="257" width="3.875" customWidth="1"/>
-    <col min="258" max="258" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" customWidth="1"/>
+    <col min="257" max="257" width="3.88671875" customWidth="1"/>
+    <col min="258" max="258" width="10.109375" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.125" customWidth="1"/>
+    <col min="260" max="260" width="12.109375" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.125" customWidth="1"/>
-    <col min="263" max="263" width="82.125" customWidth="1"/>
-    <col min="264" max="264" width="25.625" customWidth="1"/>
-    <col min="265" max="265" width="13.625" customWidth="1"/>
-    <col min="266" max="266" width="9.875" customWidth="1"/>
-    <col min="267" max="267" width="10.125" customWidth="1"/>
+    <col min="262" max="262" width="9.109375" customWidth="1"/>
+    <col min="263" max="263" width="82.109375" customWidth="1"/>
+    <col min="264" max="264" width="25.6640625" customWidth="1"/>
+    <col min="265" max="265" width="13.6640625" customWidth="1"/>
+    <col min="266" max="266" width="9.88671875" customWidth="1"/>
+    <col min="267" max="267" width="10.109375" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.625" customWidth="1"/>
-    <col min="513" max="513" width="3.875" customWidth="1"/>
-    <col min="514" max="514" width="10.125" customWidth="1"/>
+    <col min="269" max="269" width="17.6640625" customWidth="1"/>
+    <col min="513" max="513" width="3.88671875" customWidth="1"/>
+    <col min="514" max="514" width="10.109375" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.125" customWidth="1"/>
+    <col min="516" max="516" width="12.109375" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.125" customWidth="1"/>
-    <col min="519" max="519" width="82.125" customWidth="1"/>
-    <col min="520" max="520" width="25.625" customWidth="1"/>
-    <col min="521" max="521" width="13.625" customWidth="1"/>
-    <col min="522" max="522" width="9.875" customWidth="1"/>
-    <col min="523" max="523" width="10.125" customWidth="1"/>
+    <col min="518" max="518" width="9.109375" customWidth="1"/>
+    <col min="519" max="519" width="82.109375" customWidth="1"/>
+    <col min="520" max="520" width="25.6640625" customWidth="1"/>
+    <col min="521" max="521" width="13.6640625" customWidth="1"/>
+    <col min="522" max="522" width="9.88671875" customWidth="1"/>
+    <col min="523" max="523" width="10.109375" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.625" customWidth="1"/>
-    <col min="769" max="769" width="3.875" customWidth="1"/>
-    <col min="770" max="770" width="10.125" customWidth="1"/>
+    <col min="525" max="525" width="17.6640625" customWidth="1"/>
+    <col min="769" max="769" width="3.88671875" customWidth="1"/>
+    <col min="770" max="770" width="10.109375" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.125" customWidth="1"/>
+    <col min="772" max="772" width="12.109375" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.125" customWidth="1"/>
-    <col min="775" max="775" width="82.125" customWidth="1"/>
-    <col min="776" max="776" width="25.625" customWidth="1"/>
-    <col min="777" max="777" width="13.625" customWidth="1"/>
-    <col min="778" max="778" width="9.875" customWidth="1"/>
-    <col min="779" max="779" width="10.125" customWidth="1"/>
+    <col min="774" max="774" width="9.109375" customWidth="1"/>
+    <col min="775" max="775" width="82.109375" customWidth="1"/>
+    <col min="776" max="776" width="25.6640625" customWidth="1"/>
+    <col min="777" max="777" width="13.6640625" customWidth="1"/>
+    <col min="778" max="778" width="9.88671875" customWidth="1"/>
+    <col min="779" max="779" width="10.109375" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.875" customWidth="1"/>
-    <col min="1026" max="1026" width="10.125" customWidth="1"/>
+    <col min="781" max="781" width="17.6640625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.88671875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.109375" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.125" customWidth="1"/>
+    <col min="1028" max="1028" width="12.109375" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.125" customWidth="1"/>
-    <col min="1031" max="1031" width="82.125" customWidth="1"/>
-    <col min="1032" max="1032" width="25.625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.875" customWidth="1"/>
-    <col min="1035" max="1035" width="10.125" customWidth="1"/>
+    <col min="1030" max="1030" width="9.109375" customWidth="1"/>
+    <col min="1031" max="1031" width="82.109375" customWidth="1"/>
+    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.88671875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.109375" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.875" customWidth="1"/>
-    <col min="1282" max="1282" width="10.125" customWidth="1"/>
+    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.88671875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.109375" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.125" customWidth="1"/>
+    <col min="1284" max="1284" width="12.109375" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.125" customWidth="1"/>
-    <col min="1287" max="1287" width="82.125" customWidth="1"/>
-    <col min="1288" max="1288" width="25.625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.875" customWidth="1"/>
-    <col min="1291" max="1291" width="10.125" customWidth="1"/>
+    <col min="1286" max="1286" width="9.109375" customWidth="1"/>
+    <col min="1287" max="1287" width="82.109375" customWidth="1"/>
+    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.88671875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.109375" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.875" customWidth="1"/>
-    <col min="1538" max="1538" width="10.125" customWidth="1"/>
+    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.88671875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.109375" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.125" customWidth="1"/>
+    <col min="1540" max="1540" width="12.109375" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.125" customWidth="1"/>
-    <col min="1543" max="1543" width="82.125" customWidth="1"/>
-    <col min="1544" max="1544" width="25.625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.875" customWidth="1"/>
-    <col min="1547" max="1547" width="10.125" customWidth="1"/>
+    <col min="1542" max="1542" width="9.109375" customWidth="1"/>
+    <col min="1543" max="1543" width="82.109375" customWidth="1"/>
+    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.88671875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.109375" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.875" customWidth="1"/>
-    <col min="1794" max="1794" width="10.125" customWidth="1"/>
+    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.88671875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.109375" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.125" customWidth="1"/>
+    <col min="1796" max="1796" width="12.109375" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.125" customWidth="1"/>
-    <col min="1799" max="1799" width="82.125" customWidth="1"/>
-    <col min="1800" max="1800" width="25.625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.875" customWidth="1"/>
-    <col min="1803" max="1803" width="10.125" customWidth="1"/>
+    <col min="1798" max="1798" width="9.109375" customWidth="1"/>
+    <col min="1799" max="1799" width="82.109375" customWidth="1"/>
+    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.88671875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.109375" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.875" customWidth="1"/>
-    <col min="2050" max="2050" width="10.125" customWidth="1"/>
+    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.88671875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.109375" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.125" customWidth="1"/>
+    <col min="2052" max="2052" width="12.109375" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.125" customWidth="1"/>
-    <col min="2055" max="2055" width="82.125" customWidth="1"/>
-    <col min="2056" max="2056" width="25.625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.875" customWidth="1"/>
-    <col min="2059" max="2059" width="10.125" customWidth="1"/>
+    <col min="2054" max="2054" width="9.109375" customWidth="1"/>
+    <col min="2055" max="2055" width="82.109375" customWidth="1"/>
+    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.88671875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.109375" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.875" customWidth="1"/>
-    <col min="2306" max="2306" width="10.125" customWidth="1"/>
+    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.88671875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.109375" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.125" customWidth="1"/>
+    <col min="2308" max="2308" width="12.109375" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.125" customWidth="1"/>
-    <col min="2311" max="2311" width="82.125" customWidth="1"/>
-    <col min="2312" max="2312" width="25.625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.875" customWidth="1"/>
-    <col min="2315" max="2315" width="10.125" customWidth="1"/>
+    <col min="2310" max="2310" width="9.109375" customWidth="1"/>
+    <col min="2311" max="2311" width="82.109375" customWidth="1"/>
+    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.88671875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.109375" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.875" customWidth="1"/>
-    <col min="2562" max="2562" width="10.125" customWidth="1"/>
+    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.88671875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.109375" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.125" customWidth="1"/>
+    <col min="2564" max="2564" width="12.109375" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.125" customWidth="1"/>
-    <col min="2567" max="2567" width="82.125" customWidth="1"/>
-    <col min="2568" max="2568" width="25.625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.875" customWidth="1"/>
-    <col min="2571" max="2571" width="10.125" customWidth="1"/>
+    <col min="2566" max="2566" width="9.109375" customWidth="1"/>
+    <col min="2567" max="2567" width="82.109375" customWidth="1"/>
+    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.88671875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.109375" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.875" customWidth="1"/>
-    <col min="2818" max="2818" width="10.125" customWidth="1"/>
+    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.88671875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.109375" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.125" customWidth="1"/>
+    <col min="2820" max="2820" width="12.109375" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.125" customWidth="1"/>
-    <col min="2823" max="2823" width="82.125" customWidth="1"/>
-    <col min="2824" max="2824" width="25.625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.875" customWidth="1"/>
-    <col min="2827" max="2827" width="10.125" customWidth="1"/>
+    <col min="2822" max="2822" width="9.109375" customWidth="1"/>
+    <col min="2823" max="2823" width="82.109375" customWidth="1"/>
+    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.88671875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.109375" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.875" customWidth="1"/>
-    <col min="3074" max="3074" width="10.125" customWidth="1"/>
+    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.88671875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.109375" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.125" customWidth="1"/>
+    <col min="3076" max="3076" width="12.109375" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.125" customWidth="1"/>
-    <col min="3079" max="3079" width="82.125" customWidth="1"/>
-    <col min="3080" max="3080" width="25.625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.875" customWidth="1"/>
-    <col min="3083" max="3083" width="10.125" customWidth="1"/>
+    <col min="3078" max="3078" width="9.109375" customWidth="1"/>
+    <col min="3079" max="3079" width="82.109375" customWidth="1"/>
+    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.88671875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.109375" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.875" customWidth="1"/>
-    <col min="3330" max="3330" width="10.125" customWidth="1"/>
+    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.88671875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.109375" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.125" customWidth="1"/>
+    <col min="3332" max="3332" width="12.109375" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.125" customWidth="1"/>
-    <col min="3335" max="3335" width="82.125" customWidth="1"/>
-    <col min="3336" max="3336" width="25.625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.875" customWidth="1"/>
-    <col min="3339" max="3339" width="10.125" customWidth="1"/>
+    <col min="3334" max="3334" width="9.109375" customWidth="1"/>
+    <col min="3335" max="3335" width="82.109375" customWidth="1"/>
+    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.88671875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.109375" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.875" customWidth="1"/>
-    <col min="3586" max="3586" width="10.125" customWidth="1"/>
+    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.88671875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.109375" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.125" customWidth="1"/>
+    <col min="3588" max="3588" width="12.109375" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.125" customWidth="1"/>
-    <col min="3591" max="3591" width="82.125" customWidth="1"/>
-    <col min="3592" max="3592" width="25.625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.875" customWidth="1"/>
-    <col min="3595" max="3595" width="10.125" customWidth="1"/>
+    <col min="3590" max="3590" width="9.109375" customWidth="1"/>
+    <col min="3591" max="3591" width="82.109375" customWidth="1"/>
+    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.88671875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.109375" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.875" customWidth="1"/>
-    <col min="3842" max="3842" width="10.125" customWidth="1"/>
+    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.88671875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.109375" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.125" customWidth="1"/>
+    <col min="3844" max="3844" width="12.109375" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.125" customWidth="1"/>
-    <col min="3847" max="3847" width="82.125" customWidth="1"/>
-    <col min="3848" max="3848" width="25.625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.875" customWidth="1"/>
-    <col min="3851" max="3851" width="10.125" customWidth="1"/>
+    <col min="3846" max="3846" width="9.109375" customWidth="1"/>
+    <col min="3847" max="3847" width="82.109375" customWidth="1"/>
+    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.88671875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.109375" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.875" customWidth="1"/>
-    <col min="4098" max="4098" width="10.125" customWidth="1"/>
+    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.88671875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.109375" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.125" customWidth="1"/>
+    <col min="4100" max="4100" width="12.109375" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.125" customWidth="1"/>
-    <col min="4103" max="4103" width="82.125" customWidth="1"/>
-    <col min="4104" max="4104" width="25.625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.875" customWidth="1"/>
-    <col min="4107" max="4107" width="10.125" customWidth="1"/>
+    <col min="4102" max="4102" width="9.109375" customWidth="1"/>
+    <col min="4103" max="4103" width="82.109375" customWidth="1"/>
+    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.88671875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.109375" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.875" customWidth="1"/>
-    <col min="4354" max="4354" width="10.125" customWidth="1"/>
+    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.88671875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.109375" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.125" customWidth="1"/>
+    <col min="4356" max="4356" width="12.109375" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.125" customWidth="1"/>
-    <col min="4359" max="4359" width="82.125" customWidth="1"/>
-    <col min="4360" max="4360" width="25.625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.875" customWidth="1"/>
-    <col min="4363" max="4363" width="10.125" customWidth="1"/>
+    <col min="4358" max="4358" width="9.109375" customWidth="1"/>
+    <col min="4359" max="4359" width="82.109375" customWidth="1"/>
+    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.88671875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.109375" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.875" customWidth="1"/>
-    <col min="4610" max="4610" width="10.125" customWidth="1"/>
+    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.88671875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.109375" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.125" customWidth="1"/>
+    <col min="4612" max="4612" width="12.109375" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.125" customWidth="1"/>
-    <col min="4615" max="4615" width="82.125" customWidth="1"/>
-    <col min="4616" max="4616" width="25.625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.875" customWidth="1"/>
-    <col min="4619" max="4619" width="10.125" customWidth="1"/>
+    <col min="4614" max="4614" width="9.109375" customWidth="1"/>
+    <col min="4615" max="4615" width="82.109375" customWidth="1"/>
+    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.88671875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.109375" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.875" customWidth="1"/>
-    <col min="4866" max="4866" width="10.125" customWidth="1"/>
+    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.88671875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.109375" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.125" customWidth="1"/>
+    <col min="4868" max="4868" width="12.109375" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.125" customWidth="1"/>
-    <col min="4871" max="4871" width="82.125" customWidth="1"/>
-    <col min="4872" max="4872" width="25.625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.875" customWidth="1"/>
-    <col min="4875" max="4875" width="10.125" customWidth="1"/>
+    <col min="4870" max="4870" width="9.109375" customWidth="1"/>
+    <col min="4871" max="4871" width="82.109375" customWidth="1"/>
+    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.88671875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.109375" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.875" customWidth="1"/>
-    <col min="5122" max="5122" width="10.125" customWidth="1"/>
+    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.88671875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.109375" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.125" customWidth="1"/>
+    <col min="5124" max="5124" width="12.109375" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.125" customWidth="1"/>
-    <col min="5127" max="5127" width="82.125" customWidth="1"/>
-    <col min="5128" max="5128" width="25.625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.875" customWidth="1"/>
-    <col min="5131" max="5131" width="10.125" customWidth="1"/>
+    <col min="5126" max="5126" width="9.109375" customWidth="1"/>
+    <col min="5127" max="5127" width="82.109375" customWidth="1"/>
+    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.88671875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.109375" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.875" customWidth="1"/>
-    <col min="5378" max="5378" width="10.125" customWidth="1"/>
+    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.88671875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.109375" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.125" customWidth="1"/>
+    <col min="5380" max="5380" width="12.109375" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.125" customWidth="1"/>
-    <col min="5383" max="5383" width="82.125" customWidth="1"/>
-    <col min="5384" max="5384" width="25.625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.875" customWidth="1"/>
-    <col min="5387" max="5387" width="10.125" customWidth="1"/>
+    <col min="5382" max="5382" width="9.109375" customWidth="1"/>
+    <col min="5383" max="5383" width="82.109375" customWidth="1"/>
+    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.88671875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.109375" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.875" customWidth="1"/>
-    <col min="5634" max="5634" width="10.125" customWidth="1"/>
+    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.88671875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.109375" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.125" customWidth="1"/>
+    <col min="5636" max="5636" width="12.109375" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.125" customWidth="1"/>
-    <col min="5639" max="5639" width="82.125" customWidth="1"/>
-    <col min="5640" max="5640" width="25.625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.875" customWidth="1"/>
-    <col min="5643" max="5643" width="10.125" customWidth="1"/>
+    <col min="5638" max="5638" width="9.109375" customWidth="1"/>
+    <col min="5639" max="5639" width="82.109375" customWidth="1"/>
+    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.88671875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.109375" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.875" customWidth="1"/>
-    <col min="5890" max="5890" width="10.125" customWidth="1"/>
+    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.88671875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.109375" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.125" customWidth="1"/>
+    <col min="5892" max="5892" width="12.109375" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.125" customWidth="1"/>
-    <col min="5895" max="5895" width="82.125" customWidth="1"/>
-    <col min="5896" max="5896" width="25.625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.875" customWidth="1"/>
-    <col min="5899" max="5899" width="10.125" customWidth="1"/>
+    <col min="5894" max="5894" width="9.109375" customWidth="1"/>
+    <col min="5895" max="5895" width="82.109375" customWidth="1"/>
+    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.88671875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.109375" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.875" customWidth="1"/>
-    <col min="6146" max="6146" width="10.125" customWidth="1"/>
+    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.88671875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.109375" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.125" customWidth="1"/>
+    <col min="6148" max="6148" width="12.109375" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.125" customWidth="1"/>
-    <col min="6151" max="6151" width="82.125" customWidth="1"/>
-    <col min="6152" max="6152" width="25.625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.875" customWidth="1"/>
-    <col min="6155" max="6155" width="10.125" customWidth="1"/>
+    <col min="6150" max="6150" width="9.109375" customWidth="1"/>
+    <col min="6151" max="6151" width="82.109375" customWidth="1"/>
+    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.88671875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.109375" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.875" customWidth="1"/>
-    <col min="6402" max="6402" width="10.125" customWidth="1"/>
+    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.88671875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.109375" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.125" customWidth="1"/>
+    <col min="6404" max="6404" width="12.109375" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.125" customWidth="1"/>
-    <col min="6407" max="6407" width="82.125" customWidth="1"/>
-    <col min="6408" max="6408" width="25.625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.875" customWidth="1"/>
-    <col min="6411" max="6411" width="10.125" customWidth="1"/>
+    <col min="6406" max="6406" width="9.109375" customWidth="1"/>
+    <col min="6407" max="6407" width="82.109375" customWidth="1"/>
+    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.88671875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.109375" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.875" customWidth="1"/>
-    <col min="6658" max="6658" width="10.125" customWidth="1"/>
+    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.88671875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.109375" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.125" customWidth="1"/>
+    <col min="6660" max="6660" width="12.109375" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.125" customWidth="1"/>
-    <col min="6663" max="6663" width="82.125" customWidth="1"/>
-    <col min="6664" max="6664" width="25.625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.875" customWidth="1"/>
-    <col min="6667" max="6667" width="10.125" customWidth="1"/>
+    <col min="6662" max="6662" width="9.109375" customWidth="1"/>
+    <col min="6663" max="6663" width="82.109375" customWidth="1"/>
+    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.88671875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.109375" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.875" customWidth="1"/>
-    <col min="6914" max="6914" width="10.125" customWidth="1"/>
+    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.88671875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.109375" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.125" customWidth="1"/>
+    <col min="6916" max="6916" width="12.109375" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.125" customWidth="1"/>
-    <col min="6919" max="6919" width="82.125" customWidth="1"/>
-    <col min="6920" max="6920" width="25.625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.875" customWidth="1"/>
-    <col min="6923" max="6923" width="10.125" customWidth="1"/>
+    <col min="6918" max="6918" width="9.109375" customWidth="1"/>
+    <col min="6919" max="6919" width="82.109375" customWidth="1"/>
+    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.88671875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.109375" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.875" customWidth="1"/>
-    <col min="7170" max="7170" width="10.125" customWidth="1"/>
+    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.88671875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.109375" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.125" customWidth="1"/>
+    <col min="7172" max="7172" width="12.109375" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.125" customWidth="1"/>
-    <col min="7175" max="7175" width="82.125" customWidth="1"/>
-    <col min="7176" max="7176" width="25.625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.875" customWidth="1"/>
-    <col min="7179" max="7179" width="10.125" customWidth="1"/>
+    <col min="7174" max="7174" width="9.109375" customWidth="1"/>
+    <col min="7175" max="7175" width="82.109375" customWidth="1"/>
+    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.88671875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.109375" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.875" customWidth="1"/>
-    <col min="7426" max="7426" width="10.125" customWidth="1"/>
+    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.88671875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.109375" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.125" customWidth="1"/>
+    <col min="7428" max="7428" width="12.109375" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.125" customWidth="1"/>
-    <col min="7431" max="7431" width="82.125" customWidth="1"/>
-    <col min="7432" max="7432" width="25.625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.875" customWidth="1"/>
-    <col min="7435" max="7435" width="10.125" customWidth="1"/>
+    <col min="7430" max="7430" width="9.109375" customWidth="1"/>
+    <col min="7431" max="7431" width="82.109375" customWidth="1"/>
+    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.88671875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.109375" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.875" customWidth="1"/>
-    <col min="7682" max="7682" width="10.125" customWidth="1"/>
+    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.88671875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.109375" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.125" customWidth="1"/>
+    <col min="7684" max="7684" width="12.109375" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.125" customWidth="1"/>
-    <col min="7687" max="7687" width="82.125" customWidth="1"/>
-    <col min="7688" max="7688" width="25.625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.875" customWidth="1"/>
-    <col min="7691" max="7691" width="10.125" customWidth="1"/>
+    <col min="7686" max="7686" width="9.109375" customWidth="1"/>
+    <col min="7687" max="7687" width="82.109375" customWidth="1"/>
+    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.88671875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.109375" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.875" customWidth="1"/>
-    <col min="7938" max="7938" width="10.125" customWidth="1"/>
+    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.88671875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.109375" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.125" customWidth="1"/>
+    <col min="7940" max="7940" width="12.109375" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.125" customWidth="1"/>
-    <col min="7943" max="7943" width="82.125" customWidth="1"/>
-    <col min="7944" max="7944" width="25.625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.875" customWidth="1"/>
-    <col min="7947" max="7947" width="10.125" customWidth="1"/>
+    <col min="7942" max="7942" width="9.109375" customWidth="1"/>
+    <col min="7943" max="7943" width="82.109375" customWidth="1"/>
+    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.88671875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.109375" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.875" customWidth="1"/>
-    <col min="8194" max="8194" width="10.125" customWidth="1"/>
+    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.88671875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.109375" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.125" customWidth="1"/>
+    <col min="8196" max="8196" width="12.109375" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.125" customWidth="1"/>
-    <col min="8199" max="8199" width="82.125" customWidth="1"/>
-    <col min="8200" max="8200" width="25.625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.875" customWidth="1"/>
-    <col min="8203" max="8203" width="10.125" customWidth="1"/>
+    <col min="8198" max="8198" width="9.109375" customWidth="1"/>
+    <col min="8199" max="8199" width="82.109375" customWidth="1"/>
+    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.88671875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.109375" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.875" customWidth="1"/>
-    <col min="8450" max="8450" width="10.125" customWidth="1"/>
+    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.88671875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.109375" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.125" customWidth="1"/>
+    <col min="8452" max="8452" width="12.109375" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.125" customWidth="1"/>
-    <col min="8455" max="8455" width="82.125" customWidth="1"/>
-    <col min="8456" max="8456" width="25.625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.875" customWidth="1"/>
-    <col min="8459" max="8459" width="10.125" customWidth="1"/>
+    <col min="8454" max="8454" width="9.109375" customWidth="1"/>
+    <col min="8455" max="8455" width="82.109375" customWidth="1"/>
+    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.88671875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.109375" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.875" customWidth="1"/>
-    <col min="8706" max="8706" width="10.125" customWidth="1"/>
+    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.88671875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.109375" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.125" customWidth="1"/>
+    <col min="8708" max="8708" width="12.109375" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.125" customWidth="1"/>
-    <col min="8711" max="8711" width="82.125" customWidth="1"/>
-    <col min="8712" max="8712" width="25.625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.875" customWidth="1"/>
-    <col min="8715" max="8715" width="10.125" customWidth="1"/>
+    <col min="8710" max="8710" width="9.109375" customWidth="1"/>
+    <col min="8711" max="8711" width="82.109375" customWidth="1"/>
+    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.88671875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.109375" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.875" customWidth="1"/>
-    <col min="8962" max="8962" width="10.125" customWidth="1"/>
+    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.88671875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.109375" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.125" customWidth="1"/>
+    <col min="8964" max="8964" width="12.109375" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.125" customWidth="1"/>
-    <col min="8967" max="8967" width="82.125" customWidth="1"/>
-    <col min="8968" max="8968" width="25.625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.875" customWidth="1"/>
-    <col min="8971" max="8971" width="10.125" customWidth="1"/>
+    <col min="8966" max="8966" width="9.109375" customWidth="1"/>
+    <col min="8967" max="8967" width="82.109375" customWidth="1"/>
+    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.88671875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.109375" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.875" customWidth="1"/>
-    <col min="9218" max="9218" width="10.125" customWidth="1"/>
+    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.88671875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.109375" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.125" customWidth="1"/>
+    <col min="9220" max="9220" width="12.109375" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.125" customWidth="1"/>
-    <col min="9223" max="9223" width="82.125" customWidth="1"/>
-    <col min="9224" max="9224" width="25.625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.875" customWidth="1"/>
-    <col min="9227" max="9227" width="10.125" customWidth="1"/>
+    <col min="9222" max="9222" width="9.109375" customWidth="1"/>
+    <col min="9223" max="9223" width="82.109375" customWidth="1"/>
+    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.88671875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.109375" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.875" customWidth="1"/>
-    <col min="9474" max="9474" width="10.125" customWidth="1"/>
+    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.88671875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.109375" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.125" customWidth="1"/>
+    <col min="9476" max="9476" width="12.109375" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.125" customWidth="1"/>
-    <col min="9479" max="9479" width="82.125" customWidth="1"/>
-    <col min="9480" max="9480" width="25.625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.875" customWidth="1"/>
-    <col min="9483" max="9483" width="10.125" customWidth="1"/>
+    <col min="9478" max="9478" width="9.109375" customWidth="1"/>
+    <col min="9479" max="9479" width="82.109375" customWidth="1"/>
+    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.88671875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.109375" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.875" customWidth="1"/>
-    <col min="9730" max="9730" width="10.125" customWidth="1"/>
+    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.88671875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.109375" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.125" customWidth="1"/>
+    <col min="9732" max="9732" width="12.109375" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.125" customWidth="1"/>
-    <col min="9735" max="9735" width="82.125" customWidth="1"/>
-    <col min="9736" max="9736" width="25.625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.875" customWidth="1"/>
-    <col min="9739" max="9739" width="10.125" customWidth="1"/>
+    <col min="9734" max="9734" width="9.109375" customWidth="1"/>
+    <col min="9735" max="9735" width="82.109375" customWidth="1"/>
+    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.88671875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.109375" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.875" customWidth="1"/>
-    <col min="9986" max="9986" width="10.125" customWidth="1"/>
+    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.88671875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.109375" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.125" customWidth="1"/>
+    <col min="9988" max="9988" width="12.109375" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.125" customWidth="1"/>
-    <col min="9991" max="9991" width="82.125" customWidth="1"/>
-    <col min="9992" max="9992" width="25.625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.875" customWidth="1"/>
-    <col min="9995" max="9995" width="10.125" customWidth="1"/>
+    <col min="9990" max="9990" width="9.109375" customWidth="1"/>
+    <col min="9991" max="9991" width="82.109375" customWidth="1"/>
+    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.88671875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.109375" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.875" customWidth="1"/>
-    <col min="10242" max="10242" width="10.125" customWidth="1"/>
+    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.88671875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.109375" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.125" customWidth="1"/>
+    <col min="10244" max="10244" width="12.109375" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.125" customWidth="1"/>
-    <col min="10247" max="10247" width="82.125" customWidth="1"/>
-    <col min="10248" max="10248" width="25.625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.875" customWidth="1"/>
-    <col min="10251" max="10251" width="10.125" customWidth="1"/>
+    <col min="10246" max="10246" width="9.109375" customWidth="1"/>
+    <col min="10247" max="10247" width="82.109375" customWidth="1"/>
+    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.88671875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.109375" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.875" customWidth="1"/>
-    <col min="10498" max="10498" width="10.125" customWidth="1"/>
+    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.88671875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.109375" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.125" customWidth="1"/>
+    <col min="10500" max="10500" width="12.109375" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.125" customWidth="1"/>
-    <col min="10503" max="10503" width="82.125" customWidth="1"/>
-    <col min="10504" max="10504" width="25.625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.875" customWidth="1"/>
-    <col min="10507" max="10507" width="10.125" customWidth="1"/>
+    <col min="10502" max="10502" width="9.109375" customWidth="1"/>
+    <col min="10503" max="10503" width="82.109375" customWidth="1"/>
+    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.88671875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.109375" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.875" customWidth="1"/>
-    <col min="10754" max="10754" width="10.125" customWidth="1"/>
+    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.88671875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.109375" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.125" customWidth="1"/>
+    <col min="10756" max="10756" width="12.109375" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.125" customWidth="1"/>
-    <col min="10759" max="10759" width="82.125" customWidth="1"/>
-    <col min="10760" max="10760" width="25.625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.875" customWidth="1"/>
-    <col min="10763" max="10763" width="10.125" customWidth="1"/>
+    <col min="10758" max="10758" width="9.109375" customWidth="1"/>
+    <col min="10759" max="10759" width="82.109375" customWidth="1"/>
+    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.88671875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.109375" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.875" customWidth="1"/>
-    <col min="11010" max="11010" width="10.125" customWidth="1"/>
+    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.88671875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.109375" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.125" customWidth="1"/>
+    <col min="11012" max="11012" width="12.109375" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.125" customWidth="1"/>
-    <col min="11015" max="11015" width="82.125" customWidth="1"/>
-    <col min="11016" max="11016" width="25.625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.875" customWidth="1"/>
-    <col min="11019" max="11019" width="10.125" customWidth="1"/>
+    <col min="11014" max="11014" width="9.109375" customWidth="1"/>
+    <col min="11015" max="11015" width="82.109375" customWidth="1"/>
+    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.88671875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.109375" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.875" customWidth="1"/>
-    <col min="11266" max="11266" width="10.125" customWidth="1"/>
+    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.88671875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.109375" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.125" customWidth="1"/>
+    <col min="11268" max="11268" width="12.109375" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.125" customWidth="1"/>
-    <col min="11271" max="11271" width="82.125" customWidth="1"/>
-    <col min="11272" max="11272" width="25.625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.875" customWidth="1"/>
-    <col min="11275" max="11275" width="10.125" customWidth="1"/>
+    <col min="11270" max="11270" width="9.109375" customWidth="1"/>
+    <col min="11271" max="11271" width="82.109375" customWidth="1"/>
+    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.88671875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.109375" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.875" customWidth="1"/>
-    <col min="11522" max="11522" width="10.125" customWidth="1"/>
+    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.88671875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.109375" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.125" customWidth="1"/>
+    <col min="11524" max="11524" width="12.109375" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.125" customWidth="1"/>
-    <col min="11527" max="11527" width="82.125" customWidth="1"/>
-    <col min="11528" max="11528" width="25.625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.875" customWidth="1"/>
-    <col min="11531" max="11531" width="10.125" customWidth="1"/>
+    <col min="11526" max="11526" width="9.109375" customWidth="1"/>
+    <col min="11527" max="11527" width="82.109375" customWidth="1"/>
+    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.88671875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.109375" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.875" customWidth="1"/>
-    <col min="11778" max="11778" width="10.125" customWidth="1"/>
+    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.88671875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.109375" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.125" customWidth="1"/>
+    <col min="11780" max="11780" width="12.109375" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.125" customWidth="1"/>
-    <col min="11783" max="11783" width="82.125" customWidth="1"/>
-    <col min="11784" max="11784" width="25.625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.875" customWidth="1"/>
-    <col min="11787" max="11787" width="10.125" customWidth="1"/>
+    <col min="11782" max="11782" width="9.109375" customWidth="1"/>
+    <col min="11783" max="11783" width="82.109375" customWidth="1"/>
+    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.88671875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.109375" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.875" customWidth="1"/>
-    <col min="12034" max="12034" width="10.125" customWidth="1"/>
+    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.88671875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.109375" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.125" customWidth="1"/>
+    <col min="12036" max="12036" width="12.109375" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.125" customWidth="1"/>
-    <col min="12039" max="12039" width="82.125" customWidth="1"/>
-    <col min="12040" max="12040" width="25.625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.875" customWidth="1"/>
-    <col min="12043" max="12043" width="10.125" customWidth="1"/>
+    <col min="12038" max="12038" width="9.109375" customWidth="1"/>
+    <col min="12039" max="12039" width="82.109375" customWidth="1"/>
+    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.88671875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.109375" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.875" customWidth="1"/>
-    <col min="12290" max="12290" width="10.125" customWidth="1"/>
+    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.88671875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.109375" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.125" customWidth="1"/>
+    <col min="12292" max="12292" width="12.109375" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.125" customWidth="1"/>
-    <col min="12295" max="12295" width="82.125" customWidth="1"/>
-    <col min="12296" max="12296" width="25.625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.875" customWidth="1"/>
-    <col min="12299" max="12299" width="10.125" customWidth="1"/>
+    <col min="12294" max="12294" width="9.109375" customWidth="1"/>
+    <col min="12295" max="12295" width="82.109375" customWidth="1"/>
+    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.88671875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.109375" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.875" customWidth="1"/>
-    <col min="12546" max="12546" width="10.125" customWidth="1"/>
+    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.88671875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.109375" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.125" customWidth="1"/>
+    <col min="12548" max="12548" width="12.109375" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.125" customWidth="1"/>
-    <col min="12551" max="12551" width="82.125" customWidth="1"/>
-    <col min="12552" max="12552" width="25.625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.875" customWidth="1"/>
-    <col min="12555" max="12555" width="10.125" customWidth="1"/>
+    <col min="12550" max="12550" width="9.109375" customWidth="1"/>
+    <col min="12551" max="12551" width="82.109375" customWidth="1"/>
+    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.88671875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.109375" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.875" customWidth="1"/>
-    <col min="12802" max="12802" width="10.125" customWidth="1"/>
+    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.88671875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.109375" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.125" customWidth="1"/>
+    <col min="12804" max="12804" width="12.109375" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.125" customWidth="1"/>
-    <col min="12807" max="12807" width="82.125" customWidth="1"/>
-    <col min="12808" max="12808" width="25.625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.875" customWidth="1"/>
-    <col min="12811" max="12811" width="10.125" customWidth="1"/>
+    <col min="12806" max="12806" width="9.109375" customWidth="1"/>
+    <col min="12807" max="12807" width="82.109375" customWidth="1"/>
+    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.88671875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.109375" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.875" customWidth="1"/>
-    <col min="13058" max="13058" width="10.125" customWidth="1"/>
+    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.88671875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.109375" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.125" customWidth="1"/>
+    <col min="13060" max="13060" width="12.109375" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.125" customWidth="1"/>
-    <col min="13063" max="13063" width="82.125" customWidth="1"/>
-    <col min="13064" max="13064" width="25.625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.875" customWidth="1"/>
-    <col min="13067" max="13067" width="10.125" customWidth="1"/>
+    <col min="13062" max="13062" width="9.109375" customWidth="1"/>
+    <col min="13063" max="13063" width="82.109375" customWidth="1"/>
+    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.88671875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.109375" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.875" customWidth="1"/>
-    <col min="13314" max="13314" width="10.125" customWidth="1"/>
+    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.88671875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.109375" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.125" customWidth="1"/>
+    <col min="13316" max="13316" width="12.109375" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.125" customWidth="1"/>
-    <col min="13319" max="13319" width="82.125" customWidth="1"/>
-    <col min="13320" max="13320" width="25.625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.875" customWidth="1"/>
-    <col min="13323" max="13323" width="10.125" customWidth="1"/>
+    <col min="13318" max="13318" width="9.109375" customWidth="1"/>
+    <col min="13319" max="13319" width="82.109375" customWidth="1"/>
+    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.88671875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.109375" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.875" customWidth="1"/>
-    <col min="13570" max="13570" width="10.125" customWidth="1"/>
+    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.88671875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.109375" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.125" customWidth="1"/>
+    <col min="13572" max="13572" width="12.109375" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.125" customWidth="1"/>
-    <col min="13575" max="13575" width="82.125" customWidth="1"/>
-    <col min="13576" max="13576" width="25.625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.875" customWidth="1"/>
-    <col min="13579" max="13579" width="10.125" customWidth="1"/>
+    <col min="13574" max="13574" width="9.109375" customWidth="1"/>
+    <col min="13575" max="13575" width="82.109375" customWidth="1"/>
+    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.88671875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.109375" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.875" customWidth="1"/>
-    <col min="13826" max="13826" width="10.125" customWidth="1"/>
+    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.88671875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.109375" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.125" customWidth="1"/>
+    <col min="13828" max="13828" width="12.109375" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.125" customWidth="1"/>
-    <col min="13831" max="13831" width="82.125" customWidth="1"/>
-    <col min="13832" max="13832" width="25.625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.875" customWidth="1"/>
-    <col min="13835" max="13835" width="10.125" customWidth="1"/>
+    <col min="13830" max="13830" width="9.109375" customWidth="1"/>
+    <col min="13831" max="13831" width="82.109375" customWidth="1"/>
+    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.88671875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.109375" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.875" customWidth="1"/>
-    <col min="14082" max="14082" width="10.125" customWidth="1"/>
+    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.88671875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.109375" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.125" customWidth="1"/>
+    <col min="14084" max="14084" width="12.109375" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.125" customWidth="1"/>
-    <col min="14087" max="14087" width="82.125" customWidth="1"/>
-    <col min="14088" max="14088" width="25.625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.875" customWidth="1"/>
-    <col min="14091" max="14091" width="10.125" customWidth="1"/>
+    <col min="14086" max="14086" width="9.109375" customWidth="1"/>
+    <col min="14087" max="14087" width="82.109375" customWidth="1"/>
+    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.88671875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.109375" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.875" customWidth="1"/>
-    <col min="14338" max="14338" width="10.125" customWidth="1"/>
+    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.88671875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.109375" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.125" customWidth="1"/>
+    <col min="14340" max="14340" width="12.109375" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.125" customWidth="1"/>
-    <col min="14343" max="14343" width="82.125" customWidth="1"/>
-    <col min="14344" max="14344" width="25.625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.875" customWidth="1"/>
-    <col min="14347" max="14347" width="10.125" customWidth="1"/>
+    <col min="14342" max="14342" width="9.109375" customWidth="1"/>
+    <col min="14343" max="14343" width="82.109375" customWidth="1"/>
+    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.88671875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.109375" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.875" customWidth="1"/>
-    <col min="14594" max="14594" width="10.125" customWidth="1"/>
+    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.88671875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.109375" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.125" customWidth="1"/>
+    <col min="14596" max="14596" width="12.109375" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.125" customWidth="1"/>
-    <col min="14599" max="14599" width="82.125" customWidth="1"/>
-    <col min="14600" max="14600" width="25.625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.875" customWidth="1"/>
-    <col min="14603" max="14603" width="10.125" customWidth="1"/>
+    <col min="14598" max="14598" width="9.109375" customWidth="1"/>
+    <col min="14599" max="14599" width="82.109375" customWidth="1"/>
+    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.88671875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.109375" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.875" customWidth="1"/>
-    <col min="14850" max="14850" width="10.125" customWidth="1"/>
+    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.88671875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.109375" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.125" customWidth="1"/>
+    <col min="14852" max="14852" width="12.109375" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.125" customWidth="1"/>
-    <col min="14855" max="14855" width="82.125" customWidth="1"/>
-    <col min="14856" max="14856" width="25.625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.875" customWidth="1"/>
-    <col min="14859" max="14859" width="10.125" customWidth="1"/>
+    <col min="14854" max="14854" width="9.109375" customWidth="1"/>
+    <col min="14855" max="14855" width="82.109375" customWidth="1"/>
+    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.88671875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.109375" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.875" customWidth="1"/>
-    <col min="15106" max="15106" width="10.125" customWidth="1"/>
+    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.88671875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.109375" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.125" customWidth="1"/>
+    <col min="15108" max="15108" width="12.109375" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.125" customWidth="1"/>
-    <col min="15111" max="15111" width="82.125" customWidth="1"/>
-    <col min="15112" max="15112" width="25.625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.875" customWidth="1"/>
-    <col min="15115" max="15115" width="10.125" customWidth="1"/>
+    <col min="15110" max="15110" width="9.109375" customWidth="1"/>
+    <col min="15111" max="15111" width="82.109375" customWidth="1"/>
+    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.88671875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.109375" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.875" customWidth="1"/>
-    <col min="15362" max="15362" width="10.125" customWidth="1"/>
+    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.88671875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.109375" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.125" customWidth="1"/>
+    <col min="15364" max="15364" width="12.109375" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.125" customWidth="1"/>
-    <col min="15367" max="15367" width="82.125" customWidth="1"/>
-    <col min="15368" max="15368" width="25.625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.875" customWidth="1"/>
-    <col min="15371" max="15371" width="10.125" customWidth="1"/>
+    <col min="15366" max="15366" width="9.109375" customWidth="1"/>
+    <col min="15367" max="15367" width="82.109375" customWidth="1"/>
+    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.88671875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.109375" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.875" customWidth="1"/>
-    <col min="15618" max="15618" width="10.125" customWidth="1"/>
+    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.88671875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.109375" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.125" customWidth="1"/>
+    <col min="15620" max="15620" width="12.109375" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.125" customWidth="1"/>
-    <col min="15623" max="15623" width="82.125" customWidth="1"/>
-    <col min="15624" max="15624" width="25.625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.875" customWidth="1"/>
-    <col min="15627" max="15627" width="10.125" customWidth="1"/>
+    <col min="15622" max="15622" width="9.109375" customWidth="1"/>
+    <col min="15623" max="15623" width="82.109375" customWidth="1"/>
+    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.88671875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.109375" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.875" customWidth="1"/>
-    <col min="15874" max="15874" width="10.125" customWidth="1"/>
+    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.88671875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.109375" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.125" customWidth="1"/>
+    <col min="15876" max="15876" width="12.109375" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.125" customWidth="1"/>
-    <col min="15879" max="15879" width="82.125" customWidth="1"/>
-    <col min="15880" max="15880" width="25.625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.875" customWidth="1"/>
-    <col min="15883" max="15883" width="10.125" customWidth="1"/>
+    <col min="15878" max="15878" width="9.109375" customWidth="1"/>
+    <col min="15879" max="15879" width="82.109375" customWidth="1"/>
+    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.88671875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.109375" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.875" customWidth="1"/>
-    <col min="16130" max="16130" width="10.125" customWidth="1"/>
+    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.88671875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.109375" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.125" customWidth="1"/>
+    <col min="16132" max="16132" width="12.109375" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.125" customWidth="1"/>
-    <col min="16135" max="16135" width="82.125" customWidth="1"/>
-    <col min="16136" max="16136" width="25.625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.875" customWidth="1"/>
-    <col min="16139" max="16139" width="10.125" customWidth="1"/>
+    <col min="16134" max="16134" width="9.109375" customWidth="1"/>
+    <col min="16135" max="16135" width="82.109375" customWidth="1"/>
+    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.88671875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.109375" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -8607,7 +8595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -8622,7 +8610,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8637,7 +8625,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -8652,7 +8640,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -8667,7 +8655,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -8682,7 +8670,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -8697,7 +8685,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -8712,7 +8700,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -8727,7 +8715,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -8742,7 +8730,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>

--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12636"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.5新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -1865,37 +1865,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="25" customWidth="1"/>
-    <col min="2" max="3" width="9.88671875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="64.77734375" style="26" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="25" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="64.75" style="26" customWidth="1"/>
     <col min="5" max="5" width="15" style="25" customWidth="1"/>
     <col min="6" max="6" width="18" style="25" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="26" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="26" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="26" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="25" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" style="25" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="25.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="25" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="25" customWidth="1"/>
     <col min="15" max="15" width="10" style="26" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="26" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="26" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="26" customWidth="1"/>
     <col min="18" max="18" width="12" style="27" customWidth="1"/>
     <col min="19" max="19" width="17" style="27" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" style="27" customWidth="1"/>
-    <col min="21" max="21" width="41.88671875" style="26" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="27" customWidth="1"/>
+    <col min="21" max="21" width="41.875" style="26" customWidth="1"/>
+    <col min="22" max="22" width="8.875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="23" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="U2" s="42"/>
       <c r="V2" s="43"/>
     </row>
-    <row r="3" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="U3" s="44"/>
       <c r="V3" s="43"/>
     </row>
-    <row r="4" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -2128,7 +2128,7 @@
       <c r="U4" s="42"/>
       <c r="V4" s="43"/>
     </row>
-    <row r="5" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="U5" s="44"/>
       <c r="V5" s="43"/>
     </row>
-    <row r="6" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="U6" s="44"/>
       <c r="V6" s="43"/>
     </row>
-    <row r="7" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="U7" s="44"/>
       <c r="V7" s="43"/>
     </row>
-    <row r="8" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -2352,7 +2352,7 @@
       <c r="U8" s="44"/>
       <c r="V8" s="43"/>
     </row>
-    <row r="9" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="U9" s="44"/>
       <c r="V9" s="43"/>
     </row>
-    <row r="10" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="U10" s="44"/>
       <c r="V10" s="43"/>
     </row>
-    <row r="11" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="U11" s="44"/>
       <c r="V11" s="43"/>
     </row>
-    <row r="12" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="U12" s="44"/>
       <c r="V12" s="43"/>
     </row>
-    <row r="13" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="U13" s="44"/>
       <c r="V13" s="43"/>
     </row>
-    <row r="14" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="U14" s="44"/>
       <c r="V14" s="43"/>
     </row>
-    <row r="15" spans="1:22" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="U15" s="44"/>
       <c r="V15" s="43"/>
     </row>
-    <row r="16" spans="1:22" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="U16" s="44"/>
       <c r="V16" s="43"/>
     </row>
-    <row r="17" spans="1:22" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -2856,7 +2856,7 @@
       <c r="U17" s="46"/>
       <c r="V17" s="43"/>
     </row>
-    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="29">
         <v>17</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="T18" s="34"/>
       <c r="U18" s="35"/>
     </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
     </row>
-    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="T20" s="34"/>
       <c r="U20" s="35"/>
     </row>
-    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -3076,7 +3076,7 @@
       <c r="T21" s="34"/>
       <c r="U21" s="52"/>
     </row>
-    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -3131,7 +3131,7 @@
       <c r="T22" s="34"/>
       <c r="U22" s="52"/>
     </row>
-    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="T23" s="34"/>
       <c r="U23" s="52"/>
     </row>
-    <row r="24" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="33" x14ac:dyDescent="0.15">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -3241,7 +3241,7 @@
       <c r="T24" s="53"/>
       <c r="U24" s="54"/>
     </row>
-    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -3298,7 +3298,7 @@
       <c r="T25" s="55"/>
       <c r="U25" s="54"/>
     </row>
-    <row r="26" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="66" x14ac:dyDescent="0.15">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="U26" s="54"/>
     </row>
-    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="29">
         <v>26</v>
       </c>
@@ -3404,7 +3404,7 @@
       <c r="T27" s="55"/>
       <c r="U27" s="54"/>
     </row>
-    <row r="28" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="T28" s="55"/>
       <c r="U28" s="54"/>
     </row>
-    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="T29" s="57"/>
       <c r="U29" s="51"/>
     </row>
-    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="T30" s="34"/>
       <c r="U30" s="52"/>
     </row>
-    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="T31" s="34"/>
       <c r="U31" s="52"/>
     </row>
-    <row r="32" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="33" x14ac:dyDescent="0.15">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="T32" s="34"/>
       <c r="U32" s="52"/>
     </row>
-    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="29">
         <v>32</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="T33" s="55"/>
       <c r="U33" s="54"/>
     </row>
-    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="29">
         <v>34</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="T35" s="34"/>
       <c r="U35" s="52"/>
     </row>
-    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="29">
         <v>35</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="T36" s="34"/>
       <c r="U36" s="52"/>
     </row>
-    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="29">
         <v>36</v>
       </c>
@@ -3956,7 +3956,7 @@
       <c r="T37" s="34"/>
       <c r="U37" s="52"/>
     </row>
-    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="29">
         <v>37</v>
       </c>
@@ -4011,7 +4011,7 @@
       <c r="T38" s="34"/>
       <c r="U38" s="52"/>
     </row>
-    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="29">
         <v>38</v>
       </c>
@@ -4066,7 +4066,7 @@
       <c r="T39" s="34"/>
       <c r="U39" s="52"/>
     </row>
-    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="29">
         <v>39</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="T40" s="34"/>
       <c r="U40" s="52"/>
     </row>
-    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="29">
         <v>40</v>
       </c>
@@ -4176,7 +4176,7 @@
       <c r="T41" s="34"/>
       <c r="U41" s="52"/>
     </row>
-    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="29">
         <v>41</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="T42" s="34"/>
       <c r="U42" s="52"/>
     </row>
-    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="29">
         <v>42</v>
       </c>
@@ -4290,7 +4290,7 @@
       <c r="T43" s="34"/>
       <c r="U43" s="52"/>
     </row>
-    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="29">
         <v>43</v>
       </c>
@@ -4347,7 +4347,7 @@
       <c r="T44" s="34"/>
       <c r="U44" s="52"/>
     </row>
-    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="29">
         <v>44</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="T45" s="57"/>
       <c r="U45" s="52"/>
     </row>
-    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="29">
         <v>45</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="T46" s="57"/>
       <c r="U46" s="52"/>
     </row>
-    <row r="47" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="33" x14ac:dyDescent="0.15">
       <c r="A47" s="29">
         <v>46</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="T47" s="34"/>
       <c r="U47" s="35"/>
     </row>
-    <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="33" x14ac:dyDescent="0.15">
       <c r="A48" s="29">
         <v>47</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="T48" s="34"/>
       <c r="U48" s="35"/>
     </row>
-    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="29">
         <v>48</v>
       </c>
@@ -4622,7 +4622,7 @@
       <c r="T49" s="34"/>
       <c r="U49" s="35"/>
     </row>
-    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="29">
         <v>49</v>
       </c>
@@ -4679,7 +4679,7 @@
       <c r="T50" s="34"/>
       <c r="U50" s="35"/>
     </row>
-    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="29">
         <v>50</v>
       </c>
@@ -4736,7 +4736,7 @@
       <c r="T51" s="34"/>
       <c r="U51" s="35"/>
     </row>
-    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="29">
         <v>51</v>
       </c>
@@ -4793,7 +4793,7 @@
       <c r="T52" s="34"/>
       <c r="U52" s="35"/>
     </row>
-    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="29">
         <v>52</v>
       </c>
@@ -4848,7 +4848,7 @@
       <c r="T53" s="34"/>
       <c r="U53" s="35"/>
     </row>
-    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="34"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -4871,7 +4871,7 @@
       <c r="T54" s="34"/>
       <c r="U54" s="35"/>
     </row>
-    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="34"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -4894,7 +4894,7 @@
       <c r="T55" s="34"/>
       <c r="U55" s="35"/>
     </row>
-    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="34"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -4917,7 +4917,7 @@
       <c r="T56" s="34"/>
       <c r="U56" s="35"/>
     </row>
-    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -4940,7 +4940,7 @@
       <c r="T57" s="34"/>
       <c r="U57" s="35"/>
     </row>
-    <row r="58" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="34"/>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -4963,7 +4963,7 @@
       <c r="T58" s="34"/>
       <c r="U58" s="35"/>
     </row>
-    <row r="59" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="34"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -4986,7 +4986,7 @@
       <c r="T59" s="34"/>
       <c r="U59" s="35"/>
     </row>
-    <row r="60" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -5009,7 +5009,7 @@
       <c r="T60" s="34"/>
       <c r="U60" s="35"/>
     </row>
-    <row r="61" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
@@ -5032,7 +5032,7 @@
       <c r="T61" s="34"/>
       <c r="U61" s="35"/>
     </row>
-    <row r="62" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
@@ -5055,7 +5055,7 @@
       <c r="T62" s="34"/>
       <c r="U62" s="35"/>
     </row>
-    <row r="63" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
@@ -5078,7 +5078,7 @@
       <c r="T63" s="34"/>
       <c r="U63" s="35"/>
     </row>
-    <row r="64" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
@@ -5101,7 +5101,7 @@
       <c r="T64" s="34"/>
       <c r="U64" s="35"/>
     </row>
-    <row r="65" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -5124,7 +5124,7 @@
       <c r="T65" s="34"/>
       <c r="U65" s="35"/>
     </row>
-    <row r="66" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
@@ -5147,7 +5147,7 @@
       <c r="T66" s="34"/>
       <c r="U66" s="35"/>
     </row>
-    <row r="67" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="34"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
@@ -5170,7 +5170,7 @@
       <c r="T67" s="34"/>
       <c r="U67" s="35"/>
     </row>
-    <row r="68" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="34"/>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -5193,7 +5193,7 @@
       <c r="T68" s="34"/>
       <c r="U68" s="35"/>
     </row>
-    <row r="69" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -5216,7 +5216,7 @@
       <c r="T69" s="34"/>
       <c r="U69" s="35"/>
     </row>
-    <row r="70" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="34"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
@@ -5239,7 +5239,7 @@
       <c r="T70" s="34"/>
       <c r="U70" s="35"/>
     </row>
-    <row r="71" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="34"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -5262,7 +5262,7 @@
       <c r="T71" s="34"/>
       <c r="U71" s="35"/>
     </row>
-    <row r="72" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="34"/>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -5285,7 +5285,7 @@
       <c r="T72" s="34"/>
       <c r="U72" s="35"/>
     </row>
-    <row r="73" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="34"/>
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
@@ -5308,7 +5308,7 @@
       <c r="T73" s="34"/>
       <c r="U73" s="35"/>
     </row>
-    <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="34"/>
       <c r="B74" s="34"/>
       <c r="C74" s="34"/>
@@ -5331,7 +5331,7 @@
       <c r="T74" s="34"/>
       <c r="U74" s="35"/>
     </row>
-    <row r="75" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="34"/>
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
@@ -5354,7 +5354,7 @@
       <c r="T75" s="34"/>
       <c r="U75" s="35"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76" s="34"/>
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
@@ -5377,7 +5377,7 @@
       <c r="T76" s="34"/>
       <c r="U76" s="35"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77" s="34"/>
       <c r="B77" s="34"/>
       <c r="C77" s="34"/>
@@ -5400,7 +5400,7 @@
       <c r="T77" s="34"/>
       <c r="U77" s="35"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78" s="34"/>
       <c r="B78" s="34"/>
       <c r="C78" s="34"/>
@@ -5423,7 +5423,7 @@
       <c r="T78" s="34"/>
       <c r="U78" s="35"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79" s="34"/>
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
@@ -5446,7 +5446,7 @@
       <c r="T79" s="34"/>
       <c r="U79" s="35"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80" s="34"/>
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
@@ -5469,7 +5469,7 @@
       <c r="T80" s="34"/>
       <c r="U80" s="35"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A81" s="34"/>
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
@@ -5492,7 +5492,7 @@
       <c r="T81" s="34"/>
       <c r="U81" s="35"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82" s="34"/>
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
@@ -5515,7 +5515,7 @@
       <c r="T82" s="34"/>
       <c r="U82" s="35"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83" s="34"/>
       <c r="B83" s="34"/>
       <c r="C83" s="34"/>
@@ -5538,7 +5538,7 @@
       <c r="T83" s="34"/>
       <c r="U83" s="35"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84" s="34"/>
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
@@ -5561,7 +5561,7 @@
       <c r="T84" s="34"/>
       <c r="U84" s="35"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85" s="34"/>
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
@@ -5584,7 +5584,7 @@
       <c r="T85" s="34"/>
       <c r="U85" s="35"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86" s="34"/>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -5607,7 +5607,7 @@
       <c r="T86" s="34"/>
       <c r="U86" s="35"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87" s="34"/>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -5630,7 +5630,7 @@
       <c r="T87" s="34"/>
       <c r="U87" s="35"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88" s="34"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -5653,7 +5653,7 @@
       <c r="T88" s="34"/>
       <c r="U88" s="35"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89" s="34"/>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
@@ -5676,7 +5676,7 @@
       <c r="T89" s="34"/>
       <c r="U89" s="35"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="34"/>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
@@ -5699,7 +5699,7 @@
       <c r="T90" s="34"/>
       <c r="U90" s="35"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91" s="34"/>
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
@@ -5722,7 +5722,7 @@
       <c r="T91" s="34"/>
       <c r="U91" s="35"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92" s="34"/>
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
@@ -5745,7 +5745,7 @@
       <c r="T92" s="34"/>
       <c r="U92" s="35"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93" s="34"/>
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
@@ -5768,7 +5768,7 @@
       <c r="T93" s="34"/>
       <c r="U93" s="35"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94" s="34"/>
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
@@ -5791,7 +5791,7 @@
       <c r="T94" s="34"/>
       <c r="U94" s="35"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95" s="34"/>
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
@@ -5814,7 +5814,7 @@
       <c r="T95" s="34"/>
       <c r="U95" s="35"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="34"/>
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
@@ -5837,7 +5837,7 @@
       <c r="T96" s="34"/>
       <c r="U96" s="35"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97" s="34"/>
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
@@ -5860,7 +5860,7 @@
       <c r="T97" s="34"/>
       <c r="U97" s="35"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98" s="34"/>
       <c r="B98" s="34"/>
       <c r="C98" s="34"/>
@@ -5883,7 +5883,7 @@
       <c r="T98" s="34"/>
       <c r="U98" s="35"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99" s="34"/>
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
@@ -5906,7 +5906,7 @@
       <c r="T99" s="34"/>
       <c r="U99" s="35"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="34"/>
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
@@ -5929,7 +5929,7 @@
       <c r="T100" s="34"/>
       <c r="U100" s="35"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="34"/>
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
@@ -5952,7 +5952,7 @@
       <c r="T101" s="34"/>
       <c r="U101" s="35"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102" s="34"/>
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
@@ -5975,7 +5975,7 @@
       <c r="T102" s="34"/>
       <c r="U102" s="35"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103" s="34"/>
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
@@ -5998,7 +5998,7 @@
       <c r="T103" s="34"/>
       <c r="U103" s="35"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104" s="34"/>
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
@@ -6021,7 +6021,7 @@
       <c r="T104" s="34"/>
       <c r="U104" s="35"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
@@ -6044,7 +6044,7 @@
       <c r="T105" s="34"/>
       <c r="U105" s="35"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106" s="34"/>
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>
@@ -6067,7 +6067,7 @@
       <c r="T106" s="34"/>
       <c r="U106" s="35"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A107" s="34"/>
       <c r="B107" s="34"/>
       <c r="C107" s="34"/>
@@ -6090,7 +6090,7 @@
       <c r="T107" s="34"/>
       <c r="U107" s="35"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A108" s="34"/>
       <c r="B108" s="34"/>
       <c r="C108" s="34"/>
@@ -6113,7 +6113,7 @@
       <c r="T108" s="34"/>
       <c r="U108" s="35"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A109" s="34"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
@@ -6136,7 +6136,7 @@
       <c r="T109" s="34"/>
       <c r="U109" s="35"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A110" s="34"/>
       <c r="B110" s="34"/>
       <c r="C110" s="34"/>
@@ -6159,7 +6159,7 @@
       <c r="T110" s="34"/>
       <c r="U110" s="35"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A111" s="34"/>
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
@@ -6182,7 +6182,7 @@
       <c r="T111" s="34"/>
       <c r="U111" s="35"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A112" s="34"/>
       <c r="B112" s="34"/>
       <c r="C112" s="34"/>
@@ -6205,7 +6205,7 @@
       <c r="T112" s="34"/>
       <c r="U112" s="35"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A113" s="34"/>
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
@@ -6228,7 +6228,7 @@
       <c r="T113" s="34"/>
       <c r="U113" s="35"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A114" s="34"/>
       <c r="B114" s="34"/>
       <c r="C114" s="34"/>
@@ -6251,7 +6251,7 @@
       <c r="T114" s="34"/>
       <c r="U114" s="35"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A115" s="34"/>
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
@@ -6274,7 +6274,7 @@
       <c r="T115" s="34"/>
       <c r="U115" s="35"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A116" s="34"/>
       <c r="B116" s="34"/>
       <c r="C116" s="34"/>
@@ -6297,7 +6297,7 @@
       <c r="T116" s="34"/>
       <c r="U116" s="35"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A117" s="34"/>
       <c r="B117" s="34"/>
       <c r="C117" s="34"/>
@@ -6320,7 +6320,7 @@
       <c r="T117" s="34"/>
       <c r="U117" s="35"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A118" s="34"/>
       <c r="B118" s="34"/>
       <c r="C118" s="34"/>
@@ -6343,7 +6343,7 @@
       <c r="T118" s="34"/>
       <c r="U118" s="35"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A119" s="34"/>
       <c r="B119" s="34"/>
       <c r="C119" s="34"/>
@@ -6366,7 +6366,7 @@
       <c r="T119" s="34"/>
       <c r="U119" s="35"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A120" s="34"/>
       <c r="B120" s="34"/>
       <c r="C120" s="34"/>
@@ -6389,7 +6389,7 @@
       <c r="T120" s="34"/>
       <c r="U120" s="35"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A121" s="34"/>
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
@@ -6412,7 +6412,7 @@
       <c r="T121" s="34"/>
       <c r="U121" s="35"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A122" s="34"/>
       <c r="B122" s="34"/>
       <c r="C122" s="34"/>
@@ -6435,7 +6435,7 @@
       <c r="T122" s="34"/>
       <c r="U122" s="35"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A123" s="34"/>
       <c r="B123" s="34"/>
       <c r="C123" s="34"/>
@@ -6458,7 +6458,7 @@
       <c r="T123" s="34"/>
       <c r="U123" s="35"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A124" s="34"/>
       <c r="B124" s="34"/>
       <c r="C124" s="34"/>
@@ -6481,7 +6481,7 @@
       <c r="T124" s="34"/>
       <c r="U124" s="35"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A125" s="34"/>
       <c r="B125" s="34"/>
       <c r="C125" s="34"/>
@@ -6504,7 +6504,7 @@
       <c r="T125" s="34"/>
       <c r="U125" s="35"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A126" s="34"/>
       <c r="B126" s="34"/>
       <c r="C126" s="34"/>
@@ -6527,7 +6527,7 @@
       <c r="T126" s="34"/>
       <c r="U126" s="35"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A127" s="34"/>
       <c r="B127" s="34"/>
       <c r="C127" s="34"/>
@@ -6550,7 +6550,7 @@
       <c r="T127" s="34"/>
       <c r="U127" s="35"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A128" s="34"/>
       <c r="B128" s="34"/>
       <c r="C128" s="34"/>
@@ -6573,7 +6573,7 @@
       <c r="T128" s="34"/>
       <c r="U128" s="35"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129" s="34"/>
       <c r="B129" s="34"/>
       <c r="C129" s="34"/>
@@ -6596,7 +6596,7 @@
       <c r="T129" s="34"/>
       <c r="U129" s="35"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130" s="34"/>
       <c r="B130" s="34"/>
       <c r="C130" s="34"/>
@@ -6619,7 +6619,7 @@
       <c r="T130" s="34"/>
       <c r="U130" s="35"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A131" s="34"/>
       <c r="B131" s="34"/>
       <c r="C131" s="34"/>
@@ -6642,7 +6642,7 @@
       <c r="T131" s="34"/>
       <c r="U131" s="35"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A132" s="34"/>
       <c r="B132" s="34"/>
       <c r="C132" s="34"/>
@@ -6665,7 +6665,7 @@
       <c r="T132" s="34"/>
       <c r="U132" s="35"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A133" s="34"/>
       <c r="B133" s="34"/>
       <c r="C133" s="34"/>
@@ -6688,7 +6688,7 @@
       <c r="T133" s="34"/>
       <c r="U133" s="35"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134" s="34"/>
       <c r="B134" s="34"/>
       <c r="C134" s="34"/>
@@ -6711,7 +6711,7 @@
       <c r="T134" s="34"/>
       <c r="U134" s="35"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135" s="34"/>
       <c r="B135" s="34"/>
       <c r="C135" s="34"/>
@@ -6734,7 +6734,7 @@
       <c r="T135" s="34"/>
       <c r="U135" s="35"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136" s="34"/>
       <c r="B136" s="34"/>
       <c r="C136" s="34"/>
@@ -6754,7 +6754,7 @@
       <c r="Q136" s="35"/>
       <c r="U136" s="35"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137" s="34"/>
       <c r="B137" s="34"/>
       <c r="C137" s="34"/>
@@ -6774,7 +6774,7 @@
       <c r="Q137" s="35"/>
       <c r="U137" s="35"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138" s="34"/>
       <c r="B138" s="34"/>
       <c r="C138" s="34"/>
@@ -6794,7 +6794,7 @@
       <c r="Q138" s="35"/>
       <c r="U138" s="35"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139" s="34"/>
       <c r="B139" s="34"/>
       <c r="C139" s="34"/>
@@ -6814,7 +6814,7 @@
       <c r="Q139" s="35"/>
       <c r="U139" s="35"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140" s="34"/>
       <c r="B140" s="34"/>
       <c r="C140" s="34"/>
@@ -6834,7 +6834,7 @@
       <c r="Q140" s="35"/>
       <c r="U140" s="35"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="34"/>
       <c r="B141" s="34"/>
       <c r="C141" s="34"/>
@@ -6854,7 +6854,7 @@
       <c r="Q141" s="35"/>
       <c r="U141" s="35"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142" s="34"/>
       <c r="B142" s="34"/>
       <c r="C142" s="34"/>
@@ -6874,7 +6874,7 @@
       <c r="Q142" s="35"/>
       <c r="U142" s="35"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143" s="34"/>
       <c r="B143" s="34"/>
       <c r="C143" s="34"/>
@@ -6894,7 +6894,7 @@
       <c r="Q143" s="35"/>
       <c r="U143" s="35"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="34"/>
       <c r="B144" s="34"/>
       <c r="C144" s="34"/>
@@ -6914,7 +6914,7 @@
       <c r="Q144" s="35"/>
       <c r="U144" s="35"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A145" s="34"/>
       <c r="B145" s="34"/>
       <c r="C145" s="34"/>
@@ -6934,7 +6934,7 @@
       <c r="Q145" s="35"/>
       <c r="U145" s="35"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A146" s="34"/>
       <c r="B146" s="34"/>
       <c r="C146" s="34"/>
@@ -6954,7 +6954,7 @@
       <c r="Q146" s="35"/>
       <c r="U146" s="35"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A147" s="34"/>
       <c r="B147" s="34"/>
       <c r="C147" s="34"/>
@@ -6974,7 +6974,7 @@
       <c r="Q147" s="35"/>
       <c r="U147" s="35"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A148" s="34"/>
       <c r="B148" s="34"/>
       <c r="C148" s="34"/>
@@ -6994,7 +6994,7 @@
       <c r="Q148" s="35"/>
       <c r="U148" s="35"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A149" s="34"/>
       <c r="B149" s="34"/>
       <c r="C149" s="34"/>
@@ -7014,7 +7014,7 @@
       <c r="Q149" s="35"/>
       <c r="U149" s="35"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A150" s="34"/>
       <c r="B150" s="34"/>
       <c r="C150" s="34"/>
@@ -7034,7 +7034,7 @@
       <c r="Q150" s="35"/>
       <c r="U150" s="35"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A151" s="34"/>
       <c r="B151" s="34"/>
       <c r="C151" s="34"/>
@@ -7054,7 +7054,7 @@
       <c r="Q151" s="35"/>
       <c r="U151" s="35"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A152" s="34"/>
       <c r="B152" s="34"/>
       <c r="C152" s="34"/>
@@ -7074,7 +7074,7 @@
       <c r="Q152" s="35"/>
       <c r="U152" s="35"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A153" s="34"/>
       <c r="B153" s="34"/>
       <c r="C153" s="34"/>
@@ -7094,7 +7094,7 @@
       <c r="Q153" s="35"/>
       <c r="U153" s="35"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A154" s="34"/>
       <c r="B154" s="34"/>
       <c r="C154" s="34"/>
@@ -7114,7 +7114,7 @@
       <c r="Q154" s="35"/>
       <c r="U154" s="35"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A155" s="34"/>
       <c r="B155" s="34"/>
       <c r="C155" s="34"/>
@@ -7134,7 +7134,7 @@
       <c r="Q155" s="35"/>
       <c r="U155" s="35"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A156" s="34"/>
       <c r="B156" s="34"/>
       <c r="C156" s="34"/>
@@ -7154,7 +7154,7 @@
       <c r="Q156" s="35"/>
       <c r="U156" s="35"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A157" s="34"/>
       <c r="B157" s="34"/>
       <c r="C157" s="34"/>
@@ -7174,7 +7174,7 @@
       <c r="Q157" s="35"/>
       <c r="U157" s="35"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A158" s="34"/>
       <c r="B158" s="34"/>
       <c r="C158" s="34"/>
@@ -7194,7 +7194,7 @@
       <c r="Q158" s="35"/>
       <c r="U158" s="35"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A159" s="34"/>
       <c r="B159" s="34"/>
       <c r="C159" s="34"/>
@@ -7214,7 +7214,7 @@
       <c r="Q159" s="35"/>
       <c r="U159" s="35"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A160" s="34"/>
       <c r="B160" s="34"/>
       <c r="C160" s="34"/>
@@ -7234,7 +7234,7 @@
       <c r="Q160" s="35"/>
       <c r="U160" s="35"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A161" s="34"/>
       <c r="B161" s="34"/>
       <c r="C161" s="34"/>
@@ -7254,7 +7254,7 @@
       <c r="Q161" s="35"/>
       <c r="U161" s="35"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A162" s="34"/>
       <c r="B162" s="34"/>
       <c r="C162" s="34"/>
@@ -7274,7 +7274,7 @@
       <c r="Q162" s="35"/>
       <c r="U162" s="35"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A163" s="34"/>
       <c r="B163" s="34"/>
       <c r="C163" s="34"/>
@@ -7294,7 +7294,7 @@
       <c r="Q163" s="35"/>
       <c r="U163" s="35"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A164" s="34"/>
       <c r="B164" s="34"/>
       <c r="C164" s="34"/>
@@ -7314,7 +7314,7 @@
       <c r="Q164" s="35"/>
       <c r="U164" s="35"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A165" s="34"/>
       <c r="B165" s="34"/>
       <c r="C165" s="34"/>
@@ -7334,7 +7334,7 @@
       <c r="Q165" s="35"/>
       <c r="U165" s="35"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A166" s="34"/>
       <c r="B166" s="34"/>
       <c r="C166" s="34"/>
@@ -7354,7 +7354,7 @@
       <c r="Q166" s="35"/>
       <c r="U166" s="35"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A167" s="34"/>
       <c r="B167" s="34"/>
       <c r="C167" s="34"/>
@@ -7374,7 +7374,7 @@
       <c r="Q167" s="35"/>
       <c r="U167" s="35"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A168" s="34"/>
       <c r="B168" s="34"/>
       <c r="C168" s="34"/>
@@ -7394,7 +7394,7 @@
       <c r="Q168" s="35"/>
       <c r="U168" s="35"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A169" s="34"/>
       <c r="B169" s="34"/>
       <c r="C169" s="34"/>
@@ -7414,7 +7414,7 @@
       <c r="Q169" s="35"/>
       <c r="U169" s="35"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A170" s="34"/>
       <c r="B170" s="34"/>
       <c r="C170" s="34"/>
@@ -7450,18 +7450,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>63</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -7497,7 +7497,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -7507,7 +7507,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -7517,7 +7517,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -7527,7 +7527,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -7537,7 +7537,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -7547,7 +7547,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -7557,7 +7557,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -7567,7 +7567,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -7577,7 +7577,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -7587,7 +7587,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -7597,7 +7597,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -7607,7 +7607,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -7617,7 +7617,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -7627,7 +7627,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -7637,7 +7637,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -7647,7 +7647,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -7657,7 +7657,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -7686,843 +7686,843 @@
       <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="91.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="9" style="4" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" customWidth="1"/>
-    <col min="257" max="257" width="3.88671875" customWidth="1"/>
-    <col min="258" max="258" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="29.625" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.109375" customWidth="1"/>
+    <col min="260" max="260" width="12.125" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.109375" customWidth="1"/>
-    <col min="263" max="263" width="82.109375" customWidth="1"/>
-    <col min="264" max="264" width="25.6640625" customWidth="1"/>
-    <col min="265" max="265" width="13.6640625" customWidth="1"/>
-    <col min="266" max="266" width="9.88671875" customWidth="1"/>
-    <col min="267" max="267" width="10.109375" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.125" customWidth="1"/>
+    <col min="264" max="264" width="25.625" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.6640625" customWidth="1"/>
-    <col min="513" max="513" width="3.88671875" customWidth="1"/>
-    <col min="514" max="514" width="10.109375" customWidth="1"/>
+    <col min="269" max="269" width="17.625" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.109375" customWidth="1"/>
+    <col min="516" max="516" width="12.125" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.109375" customWidth="1"/>
-    <col min="519" max="519" width="82.109375" customWidth="1"/>
-    <col min="520" max="520" width="25.6640625" customWidth="1"/>
-    <col min="521" max="521" width="13.6640625" customWidth="1"/>
-    <col min="522" max="522" width="9.88671875" customWidth="1"/>
-    <col min="523" max="523" width="10.109375" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.125" customWidth="1"/>
+    <col min="520" max="520" width="25.625" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.6640625" customWidth="1"/>
-    <col min="769" max="769" width="3.88671875" customWidth="1"/>
-    <col min="770" max="770" width="10.109375" customWidth="1"/>
+    <col min="525" max="525" width="17.625" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.109375" customWidth="1"/>
+    <col min="772" max="772" width="12.125" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.109375" customWidth="1"/>
-    <col min="775" max="775" width="82.109375" customWidth="1"/>
-    <col min="776" max="776" width="25.6640625" customWidth="1"/>
-    <col min="777" max="777" width="13.6640625" customWidth="1"/>
-    <col min="778" max="778" width="9.88671875" customWidth="1"/>
-    <col min="779" max="779" width="10.109375" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.125" customWidth="1"/>
+    <col min="776" max="776" width="25.625" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.6640625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.88671875" customWidth="1"/>
-    <col min="1026" max="1026" width="10.109375" customWidth="1"/>
+    <col min="781" max="781" width="17.625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.109375" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.109375" customWidth="1"/>
-    <col min="1031" max="1031" width="82.109375" customWidth="1"/>
-    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.88671875" customWidth="1"/>
-    <col min="1035" max="1035" width="10.109375" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.125" customWidth="1"/>
+    <col min="1032" max="1032" width="25.625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.88671875" customWidth="1"/>
-    <col min="1282" max="1282" width="10.109375" customWidth="1"/>
+    <col min="1037" max="1037" width="17.625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.109375" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.109375" customWidth="1"/>
-    <col min="1287" max="1287" width="82.109375" customWidth="1"/>
-    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.88671875" customWidth="1"/>
-    <col min="1291" max="1291" width="10.109375" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.125" customWidth="1"/>
+    <col min="1288" max="1288" width="25.625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.88671875" customWidth="1"/>
-    <col min="1538" max="1538" width="10.109375" customWidth="1"/>
+    <col min="1293" max="1293" width="17.625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.109375" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.109375" customWidth="1"/>
-    <col min="1543" max="1543" width="82.109375" customWidth="1"/>
-    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.88671875" customWidth="1"/>
-    <col min="1547" max="1547" width="10.109375" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.125" customWidth="1"/>
+    <col min="1544" max="1544" width="25.625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.88671875" customWidth="1"/>
-    <col min="1794" max="1794" width="10.109375" customWidth="1"/>
+    <col min="1549" max="1549" width="17.625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.109375" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.109375" customWidth="1"/>
-    <col min="1799" max="1799" width="82.109375" customWidth="1"/>
-    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.88671875" customWidth="1"/>
-    <col min="1803" max="1803" width="10.109375" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.125" customWidth="1"/>
+    <col min="1800" max="1800" width="25.625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.88671875" customWidth="1"/>
-    <col min="2050" max="2050" width="10.109375" customWidth="1"/>
+    <col min="1805" max="1805" width="17.625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.109375" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.109375" customWidth="1"/>
-    <col min="2055" max="2055" width="82.109375" customWidth="1"/>
-    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.88671875" customWidth="1"/>
-    <col min="2059" max="2059" width="10.109375" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.125" customWidth="1"/>
+    <col min="2056" max="2056" width="25.625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.88671875" customWidth="1"/>
-    <col min="2306" max="2306" width="10.109375" customWidth="1"/>
+    <col min="2061" max="2061" width="17.625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.109375" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.109375" customWidth="1"/>
-    <col min="2311" max="2311" width="82.109375" customWidth="1"/>
-    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.88671875" customWidth="1"/>
-    <col min="2315" max="2315" width="10.109375" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.125" customWidth="1"/>
+    <col min="2312" max="2312" width="25.625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.88671875" customWidth="1"/>
-    <col min="2562" max="2562" width="10.109375" customWidth="1"/>
+    <col min="2317" max="2317" width="17.625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.109375" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.109375" customWidth="1"/>
-    <col min="2567" max="2567" width="82.109375" customWidth="1"/>
-    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.88671875" customWidth="1"/>
-    <col min="2571" max="2571" width="10.109375" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.125" customWidth="1"/>
+    <col min="2568" max="2568" width="25.625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.88671875" customWidth="1"/>
-    <col min="2818" max="2818" width="10.109375" customWidth="1"/>
+    <col min="2573" max="2573" width="17.625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.109375" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.109375" customWidth="1"/>
-    <col min="2823" max="2823" width="82.109375" customWidth="1"/>
-    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.88671875" customWidth="1"/>
-    <col min="2827" max="2827" width="10.109375" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.125" customWidth="1"/>
+    <col min="2824" max="2824" width="25.625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.88671875" customWidth="1"/>
-    <col min="3074" max="3074" width="10.109375" customWidth="1"/>
+    <col min="2829" max="2829" width="17.625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.109375" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.109375" customWidth="1"/>
-    <col min="3079" max="3079" width="82.109375" customWidth="1"/>
-    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.88671875" customWidth="1"/>
-    <col min="3083" max="3083" width="10.109375" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.125" customWidth="1"/>
+    <col min="3080" max="3080" width="25.625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.88671875" customWidth="1"/>
-    <col min="3330" max="3330" width="10.109375" customWidth="1"/>
+    <col min="3085" max="3085" width="17.625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.109375" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.109375" customWidth="1"/>
-    <col min="3335" max="3335" width="82.109375" customWidth="1"/>
-    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.88671875" customWidth="1"/>
-    <col min="3339" max="3339" width="10.109375" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.125" customWidth="1"/>
+    <col min="3336" max="3336" width="25.625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.88671875" customWidth="1"/>
-    <col min="3586" max="3586" width="10.109375" customWidth="1"/>
+    <col min="3341" max="3341" width="17.625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.109375" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.109375" customWidth="1"/>
-    <col min="3591" max="3591" width="82.109375" customWidth="1"/>
-    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.88671875" customWidth="1"/>
-    <col min="3595" max="3595" width="10.109375" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.125" customWidth="1"/>
+    <col min="3592" max="3592" width="25.625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.88671875" customWidth="1"/>
-    <col min="3842" max="3842" width="10.109375" customWidth="1"/>
+    <col min="3597" max="3597" width="17.625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.109375" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.109375" customWidth="1"/>
-    <col min="3847" max="3847" width="82.109375" customWidth="1"/>
-    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.88671875" customWidth="1"/>
-    <col min="3851" max="3851" width="10.109375" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.125" customWidth="1"/>
+    <col min="3848" max="3848" width="25.625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.88671875" customWidth="1"/>
-    <col min="4098" max="4098" width="10.109375" customWidth="1"/>
+    <col min="3853" max="3853" width="17.625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.109375" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.109375" customWidth="1"/>
-    <col min="4103" max="4103" width="82.109375" customWidth="1"/>
-    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.88671875" customWidth="1"/>
-    <col min="4107" max="4107" width="10.109375" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.125" customWidth="1"/>
+    <col min="4104" max="4104" width="25.625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.88671875" customWidth="1"/>
-    <col min="4354" max="4354" width="10.109375" customWidth="1"/>
+    <col min="4109" max="4109" width="17.625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.109375" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.109375" customWidth="1"/>
-    <col min="4359" max="4359" width="82.109375" customWidth="1"/>
-    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.88671875" customWidth="1"/>
-    <col min="4363" max="4363" width="10.109375" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.125" customWidth="1"/>
+    <col min="4360" max="4360" width="25.625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.88671875" customWidth="1"/>
-    <col min="4610" max="4610" width="10.109375" customWidth="1"/>
+    <col min="4365" max="4365" width="17.625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.109375" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.109375" customWidth="1"/>
-    <col min="4615" max="4615" width="82.109375" customWidth="1"/>
-    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.88671875" customWidth="1"/>
-    <col min="4619" max="4619" width="10.109375" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.125" customWidth="1"/>
+    <col min="4616" max="4616" width="25.625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.88671875" customWidth="1"/>
-    <col min="4866" max="4866" width="10.109375" customWidth="1"/>
+    <col min="4621" max="4621" width="17.625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.109375" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.109375" customWidth="1"/>
-    <col min="4871" max="4871" width="82.109375" customWidth="1"/>
-    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.88671875" customWidth="1"/>
-    <col min="4875" max="4875" width="10.109375" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.125" customWidth="1"/>
+    <col min="4872" max="4872" width="25.625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.88671875" customWidth="1"/>
-    <col min="5122" max="5122" width="10.109375" customWidth="1"/>
+    <col min="4877" max="4877" width="17.625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.109375" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.109375" customWidth="1"/>
-    <col min="5127" max="5127" width="82.109375" customWidth="1"/>
-    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.88671875" customWidth="1"/>
-    <col min="5131" max="5131" width="10.109375" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.125" customWidth="1"/>
+    <col min="5128" max="5128" width="25.625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.88671875" customWidth="1"/>
-    <col min="5378" max="5378" width="10.109375" customWidth="1"/>
+    <col min="5133" max="5133" width="17.625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.109375" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.109375" customWidth="1"/>
-    <col min="5383" max="5383" width="82.109375" customWidth="1"/>
-    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.88671875" customWidth="1"/>
-    <col min="5387" max="5387" width="10.109375" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.125" customWidth="1"/>
+    <col min="5384" max="5384" width="25.625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.88671875" customWidth="1"/>
-    <col min="5634" max="5634" width="10.109375" customWidth="1"/>
+    <col min="5389" max="5389" width="17.625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.109375" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.109375" customWidth="1"/>
-    <col min="5639" max="5639" width="82.109375" customWidth="1"/>
-    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.88671875" customWidth="1"/>
-    <col min="5643" max="5643" width="10.109375" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.125" customWidth="1"/>
+    <col min="5640" max="5640" width="25.625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.88671875" customWidth="1"/>
-    <col min="5890" max="5890" width="10.109375" customWidth="1"/>
+    <col min="5645" max="5645" width="17.625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.109375" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.109375" customWidth="1"/>
-    <col min="5895" max="5895" width="82.109375" customWidth="1"/>
-    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.88671875" customWidth="1"/>
-    <col min="5899" max="5899" width="10.109375" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.125" customWidth="1"/>
+    <col min="5896" max="5896" width="25.625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.88671875" customWidth="1"/>
-    <col min="6146" max="6146" width="10.109375" customWidth="1"/>
+    <col min="5901" max="5901" width="17.625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.109375" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.109375" customWidth="1"/>
-    <col min="6151" max="6151" width="82.109375" customWidth="1"/>
-    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.88671875" customWidth="1"/>
-    <col min="6155" max="6155" width="10.109375" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.125" customWidth="1"/>
+    <col min="6152" max="6152" width="25.625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.88671875" customWidth="1"/>
-    <col min="6402" max="6402" width="10.109375" customWidth="1"/>
+    <col min="6157" max="6157" width="17.625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.109375" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.109375" customWidth="1"/>
-    <col min="6407" max="6407" width="82.109375" customWidth="1"/>
-    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.88671875" customWidth="1"/>
-    <col min="6411" max="6411" width="10.109375" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.125" customWidth="1"/>
+    <col min="6408" max="6408" width="25.625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.88671875" customWidth="1"/>
-    <col min="6658" max="6658" width="10.109375" customWidth="1"/>
+    <col min="6413" max="6413" width="17.625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.109375" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.109375" customWidth="1"/>
-    <col min="6663" max="6663" width="82.109375" customWidth="1"/>
-    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.88671875" customWidth="1"/>
-    <col min="6667" max="6667" width="10.109375" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.125" customWidth="1"/>
+    <col min="6664" max="6664" width="25.625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.88671875" customWidth="1"/>
-    <col min="6914" max="6914" width="10.109375" customWidth="1"/>
+    <col min="6669" max="6669" width="17.625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.109375" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.109375" customWidth="1"/>
-    <col min="6919" max="6919" width="82.109375" customWidth="1"/>
-    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.88671875" customWidth="1"/>
-    <col min="6923" max="6923" width="10.109375" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.125" customWidth="1"/>
+    <col min="6920" max="6920" width="25.625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.88671875" customWidth="1"/>
-    <col min="7170" max="7170" width="10.109375" customWidth="1"/>
+    <col min="6925" max="6925" width="17.625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.109375" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.109375" customWidth="1"/>
-    <col min="7175" max="7175" width="82.109375" customWidth="1"/>
-    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.88671875" customWidth="1"/>
-    <col min="7179" max="7179" width="10.109375" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.125" customWidth="1"/>
+    <col min="7176" max="7176" width="25.625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.88671875" customWidth="1"/>
-    <col min="7426" max="7426" width="10.109375" customWidth="1"/>
+    <col min="7181" max="7181" width="17.625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.109375" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.109375" customWidth="1"/>
-    <col min="7431" max="7431" width="82.109375" customWidth="1"/>
-    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.88671875" customWidth="1"/>
-    <col min="7435" max="7435" width="10.109375" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.125" customWidth="1"/>
+    <col min="7432" max="7432" width="25.625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.88671875" customWidth="1"/>
-    <col min="7682" max="7682" width="10.109375" customWidth="1"/>
+    <col min="7437" max="7437" width="17.625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.109375" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.109375" customWidth="1"/>
-    <col min="7687" max="7687" width="82.109375" customWidth="1"/>
-    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.88671875" customWidth="1"/>
-    <col min="7691" max="7691" width="10.109375" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.125" customWidth="1"/>
+    <col min="7688" max="7688" width="25.625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.88671875" customWidth="1"/>
-    <col min="7938" max="7938" width="10.109375" customWidth="1"/>
+    <col min="7693" max="7693" width="17.625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.109375" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.109375" customWidth="1"/>
-    <col min="7943" max="7943" width="82.109375" customWidth="1"/>
-    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.88671875" customWidth="1"/>
-    <col min="7947" max="7947" width="10.109375" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.125" customWidth="1"/>
+    <col min="7944" max="7944" width="25.625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.88671875" customWidth="1"/>
-    <col min="8194" max="8194" width="10.109375" customWidth="1"/>
+    <col min="7949" max="7949" width="17.625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.109375" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.109375" customWidth="1"/>
-    <col min="8199" max="8199" width="82.109375" customWidth="1"/>
-    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.88671875" customWidth="1"/>
-    <col min="8203" max="8203" width="10.109375" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.125" customWidth="1"/>
+    <col min="8200" max="8200" width="25.625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.88671875" customWidth="1"/>
-    <col min="8450" max="8450" width="10.109375" customWidth="1"/>
+    <col min="8205" max="8205" width="17.625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.109375" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.109375" customWidth="1"/>
-    <col min="8455" max="8455" width="82.109375" customWidth="1"/>
-    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.88671875" customWidth="1"/>
-    <col min="8459" max="8459" width="10.109375" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.125" customWidth="1"/>
+    <col min="8456" max="8456" width="25.625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.88671875" customWidth="1"/>
-    <col min="8706" max="8706" width="10.109375" customWidth="1"/>
+    <col min="8461" max="8461" width="17.625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.109375" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.109375" customWidth="1"/>
-    <col min="8711" max="8711" width="82.109375" customWidth="1"/>
-    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.88671875" customWidth="1"/>
-    <col min="8715" max="8715" width="10.109375" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.125" customWidth="1"/>
+    <col min="8712" max="8712" width="25.625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.88671875" customWidth="1"/>
-    <col min="8962" max="8962" width="10.109375" customWidth="1"/>
+    <col min="8717" max="8717" width="17.625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.109375" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.109375" customWidth="1"/>
-    <col min="8967" max="8967" width="82.109375" customWidth="1"/>
-    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.88671875" customWidth="1"/>
-    <col min="8971" max="8971" width="10.109375" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.125" customWidth="1"/>
+    <col min="8968" max="8968" width="25.625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.88671875" customWidth="1"/>
-    <col min="9218" max="9218" width="10.109375" customWidth="1"/>
+    <col min="8973" max="8973" width="17.625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.109375" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.109375" customWidth="1"/>
-    <col min="9223" max="9223" width="82.109375" customWidth="1"/>
-    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.88671875" customWidth="1"/>
-    <col min="9227" max="9227" width="10.109375" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.125" customWidth="1"/>
+    <col min="9224" max="9224" width="25.625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.88671875" customWidth="1"/>
-    <col min="9474" max="9474" width="10.109375" customWidth="1"/>
+    <col min="9229" max="9229" width="17.625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.109375" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.109375" customWidth="1"/>
-    <col min="9479" max="9479" width="82.109375" customWidth="1"/>
-    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.88671875" customWidth="1"/>
-    <col min="9483" max="9483" width="10.109375" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.125" customWidth="1"/>
+    <col min="9480" max="9480" width="25.625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.88671875" customWidth="1"/>
-    <col min="9730" max="9730" width="10.109375" customWidth="1"/>
+    <col min="9485" max="9485" width="17.625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.109375" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.109375" customWidth="1"/>
-    <col min="9735" max="9735" width="82.109375" customWidth="1"/>
-    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.88671875" customWidth="1"/>
-    <col min="9739" max="9739" width="10.109375" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.125" customWidth="1"/>
+    <col min="9736" max="9736" width="25.625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.88671875" customWidth="1"/>
-    <col min="9986" max="9986" width="10.109375" customWidth="1"/>
+    <col min="9741" max="9741" width="17.625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.109375" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.109375" customWidth="1"/>
-    <col min="9991" max="9991" width="82.109375" customWidth="1"/>
-    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.88671875" customWidth="1"/>
-    <col min="9995" max="9995" width="10.109375" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.125" customWidth="1"/>
+    <col min="9992" max="9992" width="25.625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.88671875" customWidth="1"/>
-    <col min="10242" max="10242" width="10.109375" customWidth="1"/>
+    <col min="9997" max="9997" width="17.625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.109375" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.109375" customWidth="1"/>
-    <col min="10247" max="10247" width="82.109375" customWidth="1"/>
-    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.88671875" customWidth="1"/>
-    <col min="10251" max="10251" width="10.109375" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.125" customWidth="1"/>
+    <col min="10248" max="10248" width="25.625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.88671875" customWidth="1"/>
-    <col min="10498" max="10498" width="10.109375" customWidth="1"/>
+    <col min="10253" max="10253" width="17.625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.109375" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.109375" customWidth="1"/>
-    <col min="10503" max="10503" width="82.109375" customWidth="1"/>
-    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.88671875" customWidth="1"/>
-    <col min="10507" max="10507" width="10.109375" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.125" customWidth="1"/>
+    <col min="10504" max="10504" width="25.625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.88671875" customWidth="1"/>
-    <col min="10754" max="10754" width="10.109375" customWidth="1"/>
+    <col min="10509" max="10509" width="17.625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.109375" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.109375" customWidth="1"/>
-    <col min="10759" max="10759" width="82.109375" customWidth="1"/>
-    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.88671875" customWidth="1"/>
-    <col min="10763" max="10763" width="10.109375" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.125" customWidth="1"/>
+    <col min="10760" max="10760" width="25.625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.88671875" customWidth="1"/>
-    <col min="11010" max="11010" width="10.109375" customWidth="1"/>
+    <col min="10765" max="10765" width="17.625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.109375" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.109375" customWidth="1"/>
-    <col min="11015" max="11015" width="82.109375" customWidth="1"/>
-    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.88671875" customWidth="1"/>
-    <col min="11019" max="11019" width="10.109375" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.125" customWidth="1"/>
+    <col min="11016" max="11016" width="25.625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.88671875" customWidth="1"/>
-    <col min="11266" max="11266" width="10.109375" customWidth="1"/>
+    <col min="11021" max="11021" width="17.625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.109375" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.109375" customWidth="1"/>
-    <col min="11271" max="11271" width="82.109375" customWidth="1"/>
-    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.88671875" customWidth="1"/>
-    <col min="11275" max="11275" width="10.109375" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.125" customWidth="1"/>
+    <col min="11272" max="11272" width="25.625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.88671875" customWidth="1"/>
-    <col min="11522" max="11522" width="10.109375" customWidth="1"/>
+    <col min="11277" max="11277" width="17.625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.109375" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.109375" customWidth="1"/>
-    <col min="11527" max="11527" width="82.109375" customWidth="1"/>
-    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.88671875" customWidth="1"/>
-    <col min="11531" max="11531" width="10.109375" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.125" customWidth="1"/>
+    <col min="11528" max="11528" width="25.625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.88671875" customWidth="1"/>
-    <col min="11778" max="11778" width="10.109375" customWidth="1"/>
+    <col min="11533" max="11533" width="17.625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.109375" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.109375" customWidth="1"/>
-    <col min="11783" max="11783" width="82.109375" customWidth="1"/>
-    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.88671875" customWidth="1"/>
-    <col min="11787" max="11787" width="10.109375" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.125" customWidth="1"/>
+    <col min="11784" max="11784" width="25.625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.88671875" customWidth="1"/>
-    <col min="12034" max="12034" width="10.109375" customWidth="1"/>
+    <col min="11789" max="11789" width="17.625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.109375" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.109375" customWidth="1"/>
-    <col min="12039" max="12039" width="82.109375" customWidth="1"/>
-    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.88671875" customWidth="1"/>
-    <col min="12043" max="12043" width="10.109375" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.125" customWidth="1"/>
+    <col min="12040" max="12040" width="25.625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.88671875" customWidth="1"/>
-    <col min="12290" max="12290" width="10.109375" customWidth="1"/>
+    <col min="12045" max="12045" width="17.625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.109375" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.109375" customWidth="1"/>
-    <col min="12295" max="12295" width="82.109375" customWidth="1"/>
-    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.88671875" customWidth="1"/>
-    <col min="12299" max="12299" width="10.109375" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.125" customWidth="1"/>
+    <col min="12296" max="12296" width="25.625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.88671875" customWidth="1"/>
-    <col min="12546" max="12546" width="10.109375" customWidth="1"/>
+    <col min="12301" max="12301" width="17.625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.109375" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.109375" customWidth="1"/>
-    <col min="12551" max="12551" width="82.109375" customWidth="1"/>
-    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.88671875" customWidth="1"/>
-    <col min="12555" max="12555" width="10.109375" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.125" customWidth="1"/>
+    <col min="12552" max="12552" width="25.625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.88671875" customWidth="1"/>
-    <col min="12802" max="12802" width="10.109375" customWidth="1"/>
+    <col min="12557" max="12557" width="17.625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.109375" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.109375" customWidth="1"/>
-    <col min="12807" max="12807" width="82.109375" customWidth="1"/>
-    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.88671875" customWidth="1"/>
-    <col min="12811" max="12811" width="10.109375" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.125" customWidth="1"/>
+    <col min="12808" max="12808" width="25.625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.88671875" customWidth="1"/>
-    <col min="13058" max="13058" width="10.109375" customWidth="1"/>
+    <col min="12813" max="12813" width="17.625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.109375" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.109375" customWidth="1"/>
-    <col min="13063" max="13063" width="82.109375" customWidth="1"/>
-    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.88671875" customWidth="1"/>
-    <col min="13067" max="13067" width="10.109375" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.125" customWidth="1"/>
+    <col min="13064" max="13064" width="25.625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.88671875" customWidth="1"/>
-    <col min="13314" max="13314" width="10.109375" customWidth="1"/>
+    <col min="13069" max="13069" width="17.625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.109375" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.109375" customWidth="1"/>
-    <col min="13319" max="13319" width="82.109375" customWidth="1"/>
-    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.88671875" customWidth="1"/>
-    <col min="13323" max="13323" width="10.109375" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.125" customWidth="1"/>
+    <col min="13320" max="13320" width="25.625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.88671875" customWidth="1"/>
-    <col min="13570" max="13570" width="10.109375" customWidth="1"/>
+    <col min="13325" max="13325" width="17.625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.109375" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.109375" customWidth="1"/>
-    <col min="13575" max="13575" width="82.109375" customWidth="1"/>
-    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.88671875" customWidth="1"/>
-    <col min="13579" max="13579" width="10.109375" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.125" customWidth="1"/>
+    <col min="13576" max="13576" width="25.625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.88671875" customWidth="1"/>
-    <col min="13826" max="13826" width="10.109375" customWidth="1"/>
+    <col min="13581" max="13581" width="17.625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.109375" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.109375" customWidth="1"/>
-    <col min="13831" max="13831" width="82.109375" customWidth="1"/>
-    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.88671875" customWidth="1"/>
-    <col min="13835" max="13835" width="10.109375" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.125" customWidth="1"/>
+    <col min="13832" max="13832" width="25.625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.88671875" customWidth="1"/>
-    <col min="14082" max="14082" width="10.109375" customWidth="1"/>
+    <col min="13837" max="13837" width="17.625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.109375" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.109375" customWidth="1"/>
-    <col min="14087" max="14087" width="82.109375" customWidth="1"/>
-    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.88671875" customWidth="1"/>
-    <col min="14091" max="14091" width="10.109375" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.125" customWidth="1"/>
+    <col min="14088" max="14088" width="25.625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.88671875" customWidth="1"/>
-    <col min="14338" max="14338" width="10.109375" customWidth="1"/>
+    <col min="14093" max="14093" width="17.625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.109375" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.109375" customWidth="1"/>
-    <col min="14343" max="14343" width="82.109375" customWidth="1"/>
-    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.88671875" customWidth="1"/>
-    <col min="14347" max="14347" width="10.109375" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.125" customWidth="1"/>
+    <col min="14344" max="14344" width="25.625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.88671875" customWidth="1"/>
-    <col min="14594" max="14594" width="10.109375" customWidth="1"/>
+    <col min="14349" max="14349" width="17.625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.109375" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.109375" customWidth="1"/>
-    <col min="14599" max="14599" width="82.109375" customWidth="1"/>
-    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.88671875" customWidth="1"/>
-    <col min="14603" max="14603" width="10.109375" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.125" customWidth="1"/>
+    <col min="14600" max="14600" width="25.625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.88671875" customWidth="1"/>
-    <col min="14850" max="14850" width="10.109375" customWidth="1"/>
+    <col min="14605" max="14605" width="17.625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.109375" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.109375" customWidth="1"/>
-    <col min="14855" max="14855" width="82.109375" customWidth="1"/>
-    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.88671875" customWidth="1"/>
-    <col min="14859" max="14859" width="10.109375" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.125" customWidth="1"/>
+    <col min="14856" max="14856" width="25.625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.88671875" customWidth="1"/>
-    <col min="15106" max="15106" width="10.109375" customWidth="1"/>
+    <col min="14861" max="14861" width="17.625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.109375" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.109375" customWidth="1"/>
-    <col min="15111" max="15111" width="82.109375" customWidth="1"/>
-    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.88671875" customWidth="1"/>
-    <col min="15115" max="15115" width="10.109375" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.125" customWidth="1"/>
+    <col min="15112" max="15112" width="25.625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.88671875" customWidth="1"/>
-    <col min="15362" max="15362" width="10.109375" customWidth="1"/>
+    <col min="15117" max="15117" width="17.625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.109375" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.109375" customWidth="1"/>
-    <col min="15367" max="15367" width="82.109375" customWidth="1"/>
-    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.88671875" customWidth="1"/>
-    <col min="15371" max="15371" width="10.109375" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.125" customWidth="1"/>
+    <col min="15368" max="15368" width="25.625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.88671875" customWidth="1"/>
-    <col min="15618" max="15618" width="10.109375" customWidth="1"/>
+    <col min="15373" max="15373" width="17.625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.109375" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.109375" customWidth="1"/>
-    <col min="15623" max="15623" width="82.109375" customWidth="1"/>
-    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.88671875" customWidth="1"/>
-    <col min="15627" max="15627" width="10.109375" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.125" customWidth="1"/>
+    <col min="15624" max="15624" width="25.625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.88671875" customWidth="1"/>
-    <col min="15874" max="15874" width="10.109375" customWidth="1"/>
+    <col min="15629" max="15629" width="17.625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.109375" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.109375" customWidth="1"/>
-    <col min="15879" max="15879" width="82.109375" customWidth="1"/>
-    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.88671875" customWidth="1"/>
-    <col min="15883" max="15883" width="10.109375" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.125" customWidth="1"/>
+    <col min="15880" max="15880" width="25.625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.88671875" customWidth="1"/>
-    <col min="16130" max="16130" width="10.109375" customWidth="1"/>
+    <col min="15885" max="15885" width="17.625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.109375" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.109375" customWidth="1"/>
-    <col min="16135" max="16135" width="82.109375" customWidth="1"/>
-    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.88671875" customWidth="1"/>
-    <col min="16139" max="16139" width="10.109375" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.125" customWidth="1"/>
+    <col min="16136" max="16136" width="25.625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
         <v>71</v>
       </c>
@@ -8539,7 +8539,7 @@
       <c r="L1" s="66"/>
       <c r="M1" s="67"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="68"/>
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
@@ -8554,7 +8554,7 @@
       <c r="L2" s="68"/>
       <c r="M2" s="69"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -8610,7 +8610,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8625,7 +8625,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -8640,7 +8640,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -8655,7 +8655,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -8670,7 +8670,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -8685,7 +8685,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -8700,7 +8700,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -8715,7 +8715,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -8730,7 +8730,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
